--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{282506DD-1CD6-4F73-B273-57056AC919DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41672B1-088D-4EAA-ADF6-6703E479E5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="564">
   <si>
     <t>id</t>
   </si>
@@ -2444,6 +2444,22 @@
   </si>
   <si>
     <t>5,100000,25000000,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(36단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(37단계)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2908,11 +2924,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R189"/>
+  <dimension ref="A1:R191"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12492,6 +12508,106 @@
         <v>0</v>
       </c>
       <c r="R189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>205</v>
+      </c>
+      <c r="B190" t="s">
+        <v>560</v>
+      </c>
+      <c r="C190" t="b">
+        <v>0</v>
+      </c>
+      <c r="D190" t="s">
+        <v>562</v>
+      </c>
+      <c r="F190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
+        <v>31</v>
+      </c>
+      <c r="I190">
+        <v>10000</v>
+      </c>
+      <c r="J190" t="s">
+        <v>46</v>
+      </c>
+      <c r="K190">
+        <v>5</v>
+      </c>
+      <c r="M190" t="b">
+        <v>0</v>
+      </c>
+      <c r="N190" t="s">
+        <v>43</v>
+      </c>
+      <c r="O190">
+        <v>0</v>
+      </c>
+      <c r="P190" t="s">
+        <v>560</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>206</v>
+      </c>
+      <c r="B191" t="s">
+        <v>561</v>
+      </c>
+      <c r="C191" t="b">
+        <v>0</v>
+      </c>
+      <c r="D191" t="s">
+        <v>563</v>
+      </c>
+      <c r="F191" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
+        <v>31</v>
+      </c>
+      <c r="I191">
+        <v>10000</v>
+      </c>
+      <c r="J191" t="s">
+        <v>46</v>
+      </c>
+      <c r="K191">
+        <v>5</v>
+      </c>
+      <c r="M191" t="b">
+        <v>0</v>
+      </c>
+      <c r="N191" t="s">
+        <v>43</v>
+      </c>
+      <c r="O191">
+        <v>0</v>
+      </c>
+      <c r="P191" t="s">
+        <v>561</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
         <v>0</v>
       </c>
     </row>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A76936-D03A-4E90-A743-481ECBE2ACCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE5F98-1BE0-45BD-A0BC-038DD22CA578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -2965,9 +2965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:R195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P193" sqref="P193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12841,7 +12841,7 @@
         <v>0</v>
       </c>
       <c r="P195" t="s">
-        <v>554</v>
+        <v>568</v>
       </c>
       <c r="Q195">
         <v>0</v>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DE5F98-1BE0-45BD-A0BC-038DD22CA578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7001C92-2FDE-4ABB-8909-6F5D5DD7D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -2966,8 +2966,8 @@
   <dimension ref="A1:R195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P193" sqref="P193"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P187" sqref="P187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12423,7 +12423,7 @@
         <v>31</v>
       </c>
       <c r="I187">
-        <v>30000</v>
+        <v>10000</v>
       </c>
       <c r="J187" t="s">
         <v>46</v>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7001C92-2FDE-4ABB-8909-6F5D5DD7D76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A597C6-90E7-483C-89BF-C21A7C5E32FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1593" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="576">
   <si>
     <t>id</t>
   </si>
@@ -2496,6 +2496,14 @@
   </si>
   <si>
     <t>9009,8802,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지   15500달성 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2963,11 +2971,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:R195"/>
+  <dimension ref="A1:R196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P187" sqref="P187"/>
+      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -12848,6 +12856,56 @@
       </c>
       <c r="R195">
         <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>210</v>
+      </c>
+      <c r="B196" t="s">
+        <v>574</v>
+      </c>
+      <c r="C196" t="b">
+        <v>0</v>
+      </c>
+      <c r="D196" t="s">
+        <v>575</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G196" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="H196" t="s">
+        <v>125</v>
+      </c>
+      <c r="I196">
+        <v>0</v>
+      </c>
+      <c r="J196" t="s">
+        <v>159</v>
+      </c>
+      <c r="K196">
+        <v>5</v>
+      </c>
+      <c r="M196" t="b">
+        <v>0</v>
+      </c>
+      <c r="N196" t="s">
+        <v>43</v>
+      </c>
+      <c r="O196">
+        <v>0</v>
+      </c>
+      <c r="P196" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q196">
+        <v>1</v>
+      </c>
+      <c r="R196">
+        <v>15500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC20B6B-0CB3-45F4-8711-D60C44FC0768}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C540FB49-3E04-4920-88F8-49F7C1B6A090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -2644,10 +2644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>스테이지   15600달성 보상</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5,14,9009,9010</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2657,6 +2653,10 @@
   </si>
   <si>
     <t>주간 수호환 소탕권 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지   16000달성 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3146,8 +3146,8 @@
   <dimension ref="A1:R209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D209" sqref="D209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>599</v>
@@ -13691,13 +13691,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="s">
+        <v>615</v>
+      </c>
+      <c r="F209" s="1" t="s">
         <v>612</v>
       </c>
-      <c r="F209" s="1" t="s">
+      <c r="G209" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="G209" s="7" t="s">
-        <v>614</v>
       </c>
       <c r="H209" t="s">
         <v>124</v>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10A1DEF4-2A4B-483C-B6CD-90F8E3EFF982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEF1CEB-A5D3-4749-8834-077E2EDC423D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -2875,7 +2875,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2967,12 +2967,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFB5CEA8"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -3021,7 +3015,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3068,9 +3062,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3389,14 +3380,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:T232"/>
+  <dimension ref="A1:T231"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A208" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D229" sqref="D229"/>
+      <pane ySplit="1" topLeftCell="A211" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -3414,7 +3405,7 @@
     <col min="17" max="17" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3476,7 +3467,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" s="2" customFormat="1">
       <c r="A2">
         <v>241</v>
       </c>
@@ -3532,7 +3523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" s="2" customFormat="1">
       <c r="A3">
         <v>235</v>
       </c>
@@ -3589,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" s="2" customFormat="1">
       <c r="A4">
         <v>234</v>
       </c>
@@ -3646,7 +3637,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>226</v>
       </c>
@@ -3705,7 +3696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" s="2" customFormat="1">
       <c r="A6" s="2">
         <v>218</v>
       </c>
@@ -3762,7 +3753,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" s="2" customFormat="1">
       <c r="A7">
         <v>214</v>
       </c>
@@ -3819,7 +3810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" s="2" customFormat="1">
       <c r="A8">
         <v>210</v>
       </c>
@@ -3876,7 +3867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" s="3" customFormat="1">
       <c r="A9" s="3">
         <v>205</v>
       </c>
@@ -3933,7 +3924,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>4</v>
       </c>
@@ -3993,7 +3984,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>101</v>
       </c>
@@ -4050,7 +4041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>102</v>
       </c>
@@ -4107,7 +4098,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>103</v>
       </c>
@@ -4164,7 +4155,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>8</v>
       </c>
@@ -4224,7 +4215,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>9</v>
       </c>
@@ -4284,7 +4275,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>10</v>
       </c>
@@ -4347,7 +4338,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20">
       <c r="A17">
         <v>11</v>
       </c>
@@ -4410,7 +4401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" s="3" customFormat="1">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4470,7 +4461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -4530,7 +4521,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>20</v>
       </c>
@@ -4590,7 +4581,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20">
       <c r="A21">
         <v>14</v>
       </c>
@@ -4650,7 +4641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" s="8" customFormat="1">
       <c r="A22" s="8">
         <v>15</v>
       </c>
@@ -4710,7 +4701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="8" customFormat="1">
       <c r="A23" s="8">
         <v>16</v>
       </c>
@@ -4770,7 +4761,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" s="8" customFormat="1">
       <c r="A24" s="8">
         <v>17</v>
       </c>
@@ -4830,7 +4821,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" s="8" customFormat="1">
       <c r="A25" s="8">
         <v>18</v>
       </c>
@@ -4887,7 +4878,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" s="8" customFormat="1">
       <c r="A26" s="8">
         <v>19</v>
       </c>
@@ -4944,7 +4935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20">
       <c r="A27">
         <v>20</v>
       </c>
@@ -5001,7 +4992,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20">
       <c r="A28">
         <v>21</v>
       </c>
@@ -5058,7 +5049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20">
       <c r="A29">
         <v>22</v>
       </c>
@@ -5115,7 +5106,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" s="3" customFormat="1">
       <c r="A30" s="3">
         <v>23</v>
       </c>
@@ -5172,7 +5163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>24</v>
       </c>
@@ -5229,7 +5220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" s="3" customFormat="1">
       <c r="A32" s="3">
         <v>25</v>
       </c>
@@ -5286,7 +5277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" s="3" customFormat="1">
       <c r="A33" s="3">
         <v>27</v>
       </c>
@@ -5346,7 +5337,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>28</v>
       </c>
@@ -5406,7 +5397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20">
       <c r="A35">
         <v>29</v>
       </c>
@@ -5463,7 +5454,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="3" customFormat="1">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -5523,7 +5514,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" s="3" customFormat="1">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -5583,7 +5574,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20">
       <c r="A38">
         <v>32</v>
       </c>
@@ -5643,7 +5634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20">
       <c r="A39">
         <v>33</v>
       </c>
@@ -5703,7 +5694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20">
       <c r="A40">
         <v>34</v>
       </c>
@@ -5763,7 +5754,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" s="3" customFormat="1">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -5820,7 +5811,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -5877,7 +5868,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>37</v>
       </c>
@@ -5934,7 +5925,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -5991,7 +5982,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20">
       <c r="A45">
         <v>39</v>
       </c>
@@ -6048,7 +6039,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20">
       <c r="A46">
         <v>41</v>
       </c>
@@ -6105,7 +6096,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20">
       <c r="A47">
         <v>42</v>
       </c>
@@ -6162,7 +6153,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="8" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="8" customFormat="1">
       <c r="A48" s="8">
         <v>44</v>
       </c>
@@ -6219,7 +6210,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="49" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" s="3" customFormat="1">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -6276,7 +6267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" s="3" customFormat="1">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -6333,7 +6324,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" s="3" customFormat="1">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -6390,7 +6381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20">
       <c r="A52">
         <v>48</v>
       </c>
@@ -6447,7 +6438,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20">
       <c r="A53">
         <v>49</v>
       </c>
@@ -6504,7 +6495,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20">
       <c r="A54">
         <v>51</v>
       </c>
@@ -6561,7 +6552,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20">
       <c r="A55">
         <v>52</v>
       </c>
@@ -6618,7 +6609,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20">
       <c r="A56">
         <v>53</v>
       </c>
@@ -6675,7 +6666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6732,7 +6723,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6789,7 +6780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6846,7 +6837,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6903,7 +6894,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6960,7 +6951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20">
       <c r="A62">
         <v>61</v>
       </c>
@@ -7017,7 +7008,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20">
       <c r="A63">
         <v>62</v>
       </c>
@@ -7074,7 +7065,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7131,7 +7122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20">
       <c r="A65">
         <v>67</v>
       </c>
@@ -7188,7 +7179,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20">
       <c r="A66">
         <v>68</v>
       </c>
@@ -7245,7 +7236,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20">
       <c r="A67">
         <v>69</v>
       </c>
@@ -7302,7 +7293,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20">
       <c r="A68">
         <v>70</v>
       </c>
@@ -7359,7 +7350,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20">
       <c r="A69">
         <v>71</v>
       </c>
@@ -7416,7 +7407,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20">
       <c r="A70">
         <v>72</v>
       </c>
@@ -7473,7 +7464,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20">
       <c r="A71">
         <v>73</v>
       </c>
@@ -7530,7 +7521,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20">
       <c r="A72">
         <v>74</v>
       </c>
@@ -7587,7 +7578,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20">
       <c r="A73">
         <v>75</v>
       </c>
@@ -7644,7 +7635,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20">
       <c r="A74">
         <v>76</v>
       </c>
@@ -7701,7 +7692,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20">
       <c r="A75">
         <v>77</v>
       </c>
@@ -7758,7 +7749,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20">
       <c r="A76">
         <v>78</v>
       </c>
@@ -7815,7 +7806,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20">
       <c r="A77">
         <v>79</v>
       </c>
@@ -7872,7 +7863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20">
       <c r="A78">
         <v>80</v>
       </c>
@@ -7929,7 +7920,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20">
       <c r="A79">
         <v>81</v>
       </c>
@@ -7986,7 +7977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20">
       <c r="A80">
         <v>82</v>
       </c>
@@ -8043,7 +8034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20">
       <c r="A81">
         <v>83</v>
       </c>
@@ -8100,7 +8091,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20">
       <c r="A82">
         <v>84</v>
       </c>
@@ -8157,7 +8148,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20">
       <c r="A83">
         <v>85</v>
       </c>
@@ -8214,7 +8205,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20">
       <c r="A84">
         <v>88</v>
       </c>
@@ -8271,7 +8262,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20">
       <c r="A85">
         <v>89</v>
       </c>
@@ -8328,7 +8319,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20">
       <c r="A86">
         <v>90</v>
       </c>
@@ -8385,7 +8376,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20">
       <c r="A87">
         <v>91</v>
       </c>
@@ -8442,7 +8433,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20">
       <c r="A88">
         <v>94</v>
       </c>
@@ -8499,7 +8490,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20">
       <c r="A89">
         <v>95</v>
       </c>
@@ -8556,7 +8547,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20">
       <c r="A90">
         <v>96</v>
       </c>
@@ -8613,7 +8604,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20">
       <c r="A91">
         <v>97</v>
       </c>
@@ -8670,7 +8661,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20">
       <c r="A92">
         <v>98</v>
       </c>
@@ -8727,7 +8718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20">
       <c r="A93">
         <v>99</v>
       </c>
@@ -8784,7 +8775,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20">
       <c r="A94">
         <v>100</v>
       </c>
@@ -8841,7 +8832,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20">
       <c r="A95">
         <v>5</v>
       </c>
@@ -8901,7 +8892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20">
       <c r="A96">
         <v>6</v>
       </c>
@@ -8961,7 +8952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20">
       <c r="A97">
         <v>7</v>
       </c>
@@ -9021,7 +9012,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20">
       <c r="A98">
         <v>101</v>
       </c>
@@ -9078,7 +9069,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20">
       <c r="A99">
         <v>104</v>
       </c>
@@ -9135,7 +9126,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20">
       <c r="A100">
         <v>105</v>
       </c>
@@ -9192,7 +9183,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20">
       <c r="A101">
         <v>106</v>
       </c>
@@ -9249,7 +9240,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20">
       <c r="A102">
         <v>107</v>
       </c>
@@ -9306,7 +9297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20">
       <c r="A103">
         <v>108</v>
       </c>
@@ -9363,7 +9354,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20">
       <c r="A104">
         <v>109</v>
       </c>
@@ -9420,7 +9411,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20">
       <c r="A105">
         <v>110</v>
       </c>
@@ -9477,7 +9468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20">
       <c r="A106">
         <v>113</v>
       </c>
@@ -9534,7 +9525,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20">
       <c r="A107">
         <v>114</v>
       </c>
@@ -9591,7 +9582,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20">
       <c r="A108">
         <v>115</v>
       </c>
@@ -9648,7 +9639,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20">
       <c r="A109">
         <v>116</v>
       </c>
@@ -9705,7 +9696,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20">
       <c r="A110">
         <v>117</v>
       </c>
@@ -9762,7 +9753,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20">
       <c r="A111">
         <v>118</v>
       </c>
@@ -9819,7 +9810,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20">
       <c r="A112">
         <v>119</v>
       </c>
@@ -9876,7 +9867,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:20">
       <c r="A113">
         <v>120</v>
       </c>
@@ -9933,7 +9924,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:20">
       <c r="A114">
         <v>123</v>
       </c>
@@ -9990,7 +9981,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:20">
       <c r="A115">
         <v>125</v>
       </c>
@@ -10047,7 +10038,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:20" ht="15.75" customHeight="1">
       <c r="A116">
         <v>126</v>
       </c>
@@ -10104,7 +10095,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:20">
       <c r="A117">
         <v>127</v>
       </c>
@@ -10161,7 +10152,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:20" s="3" customFormat="1">
       <c r="A118" s="3">
         <v>128</v>
       </c>
@@ -10221,7 +10212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:20" s="3" customFormat="1">
       <c r="A119" s="3">
         <v>129</v>
       </c>
@@ -10281,7 +10272,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:20" s="3" customFormat="1">
       <c r="A120" s="3">
         <v>130</v>
       </c>
@@ -10341,7 +10332,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:20" s="3" customFormat="1">
       <c r="A121" s="3">
         <v>131</v>
       </c>
@@ -10401,7 +10392,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:20" s="3" customFormat="1">
       <c r="A122" s="3">
         <v>132</v>
       </c>
@@ -10461,7 +10452,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:20">
       <c r="A123">
         <v>133</v>
       </c>
@@ -10518,7 +10509,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:20">
       <c r="A124">
         <v>134</v>
       </c>
@@ -10575,7 +10566,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:20">
       <c r="A125">
         <v>137</v>
       </c>
@@ -10632,7 +10623,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:20">
       <c r="A126">
         <v>138</v>
       </c>
@@ -10689,7 +10680,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:20" s="3" customFormat="1">
       <c r="A127" s="3">
         <v>141</v>
       </c>
@@ -10749,7 +10740,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:20">
       <c r="A128">
         <v>142</v>
       </c>
@@ -10806,7 +10797,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:20">
       <c r="A129">
         <v>143</v>
       </c>
@@ -10863,7 +10854,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:20" s="2" customFormat="1">
       <c r="A130" s="2">
         <v>182</v>
       </c>
@@ -10920,7 +10911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:20">
       <c r="A131">
         <v>199</v>
       </c>
@@ -10979,7 +10970,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:20">
       <c r="A132">
         <v>200</v>
       </c>
@@ -11038,7 +11029,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:20" s="2" customFormat="1">
       <c r="A133" s="2">
         <v>183</v>
       </c>
@@ -11095,7 +11086,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:20" s="2" customFormat="1">
       <c r="A134" s="2">
         <v>184</v>
       </c>
@@ -11152,7 +11143,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:20" s="2" customFormat="1">
       <c r="A135" s="2">
         <v>185</v>
       </c>
@@ -11209,7 +11200,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:20" s="2" customFormat="1">
       <c r="A136" s="2">
         <v>186</v>
       </c>
@@ -11266,7 +11257,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="1:20" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:20" ht="22.5" customHeight="1">
       <c r="A137">
         <v>181</v>
       </c>
@@ -11323,7 +11314,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:20">
       <c r="A138">
         <v>182</v>
       </c>
@@ -11380,7 +11371,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:20" s="3" customFormat="1">
       <c r="A139" s="3">
         <v>172</v>
       </c>
@@ -11437,7 +11428,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:20" s="3" customFormat="1">
       <c r="A140" s="3">
         <v>173</v>
       </c>
@@ -11494,7 +11485,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="1:20" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:20" ht="19.5" customHeight="1">
       <c r="A141" s="3">
         <v>160</v>
       </c>
@@ -11553,7 +11544,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:20">
       <c r="A142" s="3">
         <v>161</v>
       </c>
@@ -11612,7 +11603,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:20">
       <c r="A143">
         <v>144</v>
       </c>
@@ -11669,7 +11660,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:20">
       <c r="A144">
         <v>145</v>
       </c>
@@ -11726,7 +11717,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:20">
       <c r="A145">
         <v>146</v>
       </c>
@@ -11783,7 +11774,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:20">
       <c r="A146">
         <v>147</v>
       </c>
@@ -11840,7 +11831,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:20">
       <c r="A147">
         <v>148</v>
       </c>
@@ -11897,7 +11888,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:20">
       <c r="A148">
         <v>149</v>
       </c>
@@ -11954,7 +11945,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:20">
       <c r="A149">
         <v>150</v>
       </c>
@@ -12011,7 +12002,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:20">
       <c r="A150">
         <v>153</v>
       </c>
@@ -12068,7 +12059,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:20">
       <c r="A151">
         <v>154</v>
       </c>
@@ -12125,7 +12116,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:20">
       <c r="A152">
         <v>155</v>
       </c>
@@ -12182,7 +12173,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:20">
       <c r="A153">
         <v>156</v>
       </c>
@@ -12239,7 +12230,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:20">
       <c r="A154">
         <v>157</v>
       </c>
@@ -12296,7 +12287,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:20">
       <c r="A155">
         <v>158</v>
       </c>
@@ -12353,7 +12344,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:20">
       <c r="A156">
         <v>159</v>
       </c>
@@ -12410,7 +12401,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:20" s="3" customFormat="1">
       <c r="A157">
         <v>162</v>
       </c>
@@ -12469,7 +12460,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:20" s="3" customFormat="1">
       <c r="A158">
         <v>163</v>
       </c>
@@ -12528,7 +12519,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:20" s="3" customFormat="1">
       <c r="A159" s="3">
         <v>164</v>
       </c>
@@ -12585,7 +12576,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:20">
       <c r="A160" s="3">
         <v>165</v>
       </c>
@@ -12644,7 +12635,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:20">
       <c r="A161" s="3">
         <v>166</v>
       </c>
@@ -12703,7 +12694,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:20">
       <c r="A162">
         <v>167</v>
       </c>
@@ -12760,7 +12751,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:20">
       <c r="A163">
         <v>168</v>
       </c>
@@ -12817,7 +12808,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:20">
       <c r="A164">
         <v>169</v>
       </c>
@@ -12874,7 +12865,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:20">
       <c r="A165">
         <v>170</v>
       </c>
@@ -12931,7 +12922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:20">
       <c r="A166">
         <v>171</v>
       </c>
@@ -12988,7 +12979,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:20">
       <c r="A167">
         <v>172</v>
       </c>
@@ -13045,7 +13036,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:20">
       <c r="A168">
         <v>173</v>
       </c>
@@ -13102,7 +13093,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:20">
       <c r="A169">
         <v>174</v>
       </c>
@@ -13159,7 +13150,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:20">
       <c r="A170">
         <v>175</v>
       </c>
@@ -13216,7 +13207,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:20">
       <c r="A171">
         <v>176</v>
       </c>
@@ -13273,7 +13264,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:20">
       <c r="A172">
         <v>177</v>
       </c>
@@ -13330,7 +13321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:20">
       <c r="A173">
         <v>178</v>
       </c>
@@ -13387,7 +13378,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:20">
       <c r="A174">
         <v>179</v>
       </c>
@@ -13444,7 +13435,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:20">
       <c r="A175">
         <v>180</v>
       </c>
@@ -13501,7 +13492,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:20">
       <c r="A176">
         <v>181</v>
       </c>
@@ -13558,7 +13549,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:20">
       <c r="A177">
         <v>139</v>
       </c>
@@ -13615,7 +13606,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:20">
       <c r="A178">
         <v>140</v>
       </c>
@@ -13672,7 +13663,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:20">
       <c r="A179">
         <v>187</v>
       </c>
@@ -13729,7 +13720,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:20">
       <c r="A180">
         <v>188</v>
       </c>
@@ -13786,7 +13777,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:20">
       <c r="A181">
         <v>189</v>
       </c>
@@ -13843,7 +13834,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:20">
       <c r="A182">
         <v>190</v>
       </c>
@@ -13900,7 +13891,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:20">
       <c r="A183">
         <v>191</v>
       </c>
@@ -13957,7 +13948,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:20">
       <c r="A184">
         <v>192</v>
       </c>
@@ -14014,7 +14005,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:20">
       <c r="A185">
         <v>193</v>
       </c>
@@ -14071,7 +14062,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:20">
       <c r="A186">
         <v>194</v>
       </c>
@@ -14128,7 +14119,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:20">
       <c r="A187">
         <v>195</v>
       </c>
@@ -14185,7 +14176,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:20">
       <c r="A188">
         <v>196</v>
       </c>
@@ -14242,7 +14233,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:20">
       <c r="A189">
         <v>197</v>
       </c>
@@ -14299,7 +14290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:20">
       <c r="A190">
         <v>198</v>
       </c>
@@ -14356,7 +14347,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:20">
       <c r="A191">
         <v>199</v>
       </c>
@@ -14413,7 +14404,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:20">
       <c r="A192">
         <v>201</v>
       </c>
@@ -14470,7 +14461,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:20">
       <c r="A193">
         <v>202</v>
       </c>
@@ -14527,7 +14518,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:20">
       <c r="A194">
         <v>203</v>
       </c>
@@ -14584,7 +14575,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:20">
       <c r="A195">
         <v>204</v>
       </c>
@@ -14641,7 +14632,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:20">
       <c r="A196">
         <v>205</v>
       </c>
@@ -14698,7 +14689,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:20">
       <c r="A197">
         <v>206</v>
       </c>
@@ -14755,7 +14746,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:20">
       <c r="A198">
         <v>207</v>
       </c>
@@ -14812,7 +14803,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:20">
       <c r="A199">
         <v>208</v>
       </c>
@@ -14869,7 +14860,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:20">
       <c r="A200">
         <v>209</v>
       </c>
@@ -14926,7 +14917,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:20">
       <c r="A201">
         <v>210</v>
       </c>
@@ -14983,7 +14974,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:20">
       <c r="A202">
         <v>211</v>
       </c>
@@ -15040,7 +15031,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:20">
       <c r="A203">
         <v>212</v>
       </c>
@@ -15097,7 +15088,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:20">
       <c r="A204">
         <v>213</v>
       </c>
@@ -15154,7 +15145,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:20">
       <c r="A205">
         <v>215</v>
       </c>
@@ -15211,7 +15202,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:20">
       <c r="A206">
         <v>216</v>
       </c>
@@ -15268,7 +15259,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:20">
       <c r="A207">
         <v>217</v>
       </c>
@@ -15325,7 +15316,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="208" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:20" s="3" customFormat="1">
       <c r="A208" s="3">
         <v>124</v>
       </c>
@@ -15382,7 +15373,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="209" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:20" s="3" customFormat="1">
       <c r="A209" s="3">
         <v>219</v>
       </c>
@@ -15439,7 +15430,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:20">
       <c r="A210">
         <v>220</v>
       </c>
@@ -15496,7 +15487,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:20">
       <c r="A211">
         <v>221</v>
       </c>
@@ -15553,7 +15544,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:20">
       <c r="A212">
         <v>222</v>
       </c>
@@ -15610,7 +15601,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:20">
       <c r="A213">
         <v>223</v>
       </c>
@@ -15667,7 +15658,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:20">
       <c r="A214">
         <v>224</v>
       </c>
@@ -15724,7 +15715,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:20">
       <c r="A215">
         <v>225</v>
       </c>
@@ -15781,7 +15772,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:20">
       <c r="A216">
         <v>226</v>
       </c>
@@ -15838,7 +15829,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:20">
       <c r="A217">
         <v>227</v>
       </c>
@@ -15895,7 +15886,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:20">
       <c r="A218">
         <v>228</v>
       </c>
@@ -15952,7 +15943,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:20">
       <c r="A219">
         <v>229</v>
       </c>
@@ -16009,7 +16000,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:20">
       <c r="A220">
         <v>230</v>
       </c>
@@ -16066,7 +16057,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:20">
       <c r="A221">
         <v>231</v>
       </c>
@@ -16123,7 +16114,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:20">
       <c r="A222">
         <v>232</v>
       </c>
@@ -16180,7 +16171,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:20">
       <c r="A223">
         <v>233</v>
       </c>
@@ -16237,7 +16228,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:20">
       <c r="A224">
         <v>234</v>
       </c>
@@ -16294,7 +16285,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:20">
       <c r="A225">
         <v>235</v>
       </c>
@@ -16351,7 +16342,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:20">
       <c r="A226">
         <v>236</v>
       </c>
@@ -16408,7 +16399,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:20">
       <c r="A227">
         <v>237</v>
       </c>
@@ -16465,7 +16456,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:20">
       <c r="A228">
         <v>238</v>
       </c>
@@ -16522,7 +16513,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:20">
       <c r="A229">
         <v>239</v>
       </c>
@@ -16579,7 +16570,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:20">
       <c r="A230">
         <v>240</v>
       </c>
@@ -16636,7 +16627,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="231" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:20" s="3" customFormat="1">
       <c r="A231">
         <v>242</v>
       </c>
@@ -16661,7 +16652,7 @@
       <c r="I231" s="3">
         <v>50000</v>
       </c>
-      <c r="J231" s="16" t="s">
+      <c r="J231" s="15" t="s">
         <v>668</v>
       </c>
       <c r="K231" s="3">
@@ -16691,9 +16682,6 @@
       <c r="T231">
         <v>206</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="C232" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:R217" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}"/>
@@ -16712,7 +16700,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4C858EB-4E8F-4A9A-9B11-9086EB0E2CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF574E-6820-4808-AC3D-08EDD5B700BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28560" yWindow="0" windowWidth="29040" windowHeight="15600" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2434" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="714">
   <si>
     <t>id</t>
   </si>
@@ -2608,10 +2608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_PetSoul</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>수호환 소탕권 세트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2833,14 +2829,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>주간 여우불 소탕권 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>여우불 소탕권 세트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9027,9000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2856,9 +2844,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_FoxFire</t>
-  </si>
-  <si>
     <t>2,10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2911,9 +2896,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Goods_SealSword</t>
-  </si>
-  <si>
     <t>요도 해방서 세트</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2970,6 +2952,88 @@
   </si>
   <si>
     <t>20,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hottimepass1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gcpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강철이 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods_Month</t>
+  </si>
+  <si>
+    <t>Goods_InstantClear</t>
+  </si>
+  <si>
+    <t>monthpass22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpass22ins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간패스(7월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(54단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(55단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주간 여우불씨 소탕권 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여우불씨 소탕권 세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpackage1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monthpackage2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,4,4,1000000000000,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,8,8,2000000000000,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9028,9027,9017,2,9000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 소탕권 세트1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>월간 소탕권 세트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2977,7 +3041,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3068,7 +3132,9 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color rgb="FF66C3CC"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
@@ -3163,10 +3229,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3485,14 +3551,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U240"/>
+  <dimension ref="A1:U248"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -3511,7 +3577,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3567,33 +3633,33 @@
         <v>169</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="T1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="U1" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="2" customFormat="1">
       <c r="A2">
         <v>247</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="C2" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>684</v>
-      </c>
       <c r="F2" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>438</v>
@@ -3617,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="Q2" s="2">
         <v>1</v>
@@ -3631,25 +3697,25 @@
       <c r="T2">
         <v>3</v>
       </c>
-      <c r="U2" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="2" customFormat="1">
       <c r="A3">
         <v>241</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>599</v>
@@ -3676,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="Q3" s="2">
         <v>1</v>
@@ -3690,25 +3756,25 @@
       <c r="T3">
         <v>3</v>
       </c>
-      <c r="U3" s="16" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U3" s="15" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="2" customFormat="1">
       <c r="A4">
         <v>235</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="C4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="C4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>645</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>400</v>
@@ -3735,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="Q4" s="2">
         <v>1</v>
@@ -3750,28 +3816,28 @@
         <f t="shared" ref="T4" si="0">ROW()-2</f>
         <v>2</v>
       </c>
-      <c r="U4" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U4" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="2" customFormat="1">
       <c r="A5">
         <v>234</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="C5" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="C5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>580</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>438</v>
@@ -3795,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="Q5" s="2">
         <v>1</v>
@@ -3810,26 +3876,26 @@
         <f t="shared" ref="T5" si="1">ROW()-2</f>
         <v>3</v>
       </c>
-      <c r="U5" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U5" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6">
         <v>226</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C6" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>601</v>
@@ -3857,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="Q6" s="3">
         <v>5</v>
@@ -3866,17 +3932,17 @@
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T6">
         <f>ROW()-2</f>
         <v>4</v>
       </c>
-      <c r="U6" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U6" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" s="2" customFormat="1">
       <c r="A7" s="2">
         <v>218</v>
       </c>
@@ -3887,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>598</v>
@@ -3926,17 +3992,17 @@
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T7">
         <f t="shared" ref="T7:T70" si="2">ROW()-2</f>
         <v>5</v>
       </c>
-      <c r="U7" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U7" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="2" customFormat="1">
       <c r="A8">
         <v>214</v>
       </c>
@@ -3953,7 +4019,7 @@
         <v>580</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>124</v>
@@ -3986,17 +4052,17 @@
         <v>0</v>
       </c>
       <c r="S8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T8">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="U8" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U8" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="2" customFormat="1">
       <c r="A9">
         <v>210</v>
       </c>
@@ -4046,17 +4112,17 @@
         <v>0</v>
       </c>
       <c r="S9" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T9">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="U9" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="3" customFormat="1">
       <c r="A10" s="3">
         <v>205</v>
       </c>
@@ -4106,17 +4172,17 @@
         <v>0</v>
       </c>
       <c r="S10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T10">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="U10" s="16" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U10" s="15" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4169,17 +4235,17 @@
         <v>0</v>
       </c>
       <c r="S11" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T11">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="U11" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U11" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4229,17 +4295,17 @@
         <v>0</v>
       </c>
       <c r="S12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T12">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U12" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4289,17 +4355,17 @@
         <v>0</v>
       </c>
       <c r="S13" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T13">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="U13" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U13" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4349,17 +4415,17 @@
         <v>0</v>
       </c>
       <c r="S14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T14">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U14" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15">
         <v>8</v>
       </c>
@@ -4412,17 +4478,17 @@
         <v>0</v>
       </c>
       <c r="S15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T15">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="U15" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U15" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16">
         <v>9</v>
       </c>
@@ -4475,17 +4541,17 @@
         <v>0</v>
       </c>
       <c r="S16" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T16">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="U16" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U16" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4541,17 +4607,17 @@
         <v>0</v>
       </c>
       <c r="S17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T17">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="U17" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U17" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18">
         <v>11</v>
       </c>
@@ -4607,17 +4673,17 @@
         <v>0</v>
       </c>
       <c r="S18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T18">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="3" customFormat="1">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -4670,17 +4736,17 @@
         <v>0</v>
       </c>
       <c r="S19" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T19">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="U19" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="3" customFormat="1">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -4733,17 +4799,17 @@
         <v>0</v>
       </c>
       <c r="S20" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T20">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U20" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="3" customFormat="1">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4796,17 +4862,17 @@
         <v>0</v>
       </c>
       <c r="S21" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T21">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="U21" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U21" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22">
         <v>14</v>
       </c>
@@ -4859,17 +4925,17 @@
         <v>0</v>
       </c>
       <c r="S22" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T22">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="U22" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U22" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="8" customFormat="1">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -4922,17 +4988,17 @@
         <v>0</v>
       </c>
       <c r="S23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T23">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="U23" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="8" customFormat="1">
       <c r="A24" s="8">
         <v>16</v>
       </c>
@@ -4985,17 +5051,17 @@
         <v>0</v>
       </c>
       <c r="S24" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T24">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="U24" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U24" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="8" customFormat="1">
       <c r="A25" s="8">
         <v>17</v>
       </c>
@@ -5048,17 +5114,17 @@
         <v>0</v>
       </c>
       <c r="S25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T25">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="U25" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" s="8" customFormat="1">
       <c r="A26" s="8">
         <v>18</v>
       </c>
@@ -5108,17 +5174,17 @@
         <v>0</v>
       </c>
       <c r="S26" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T26">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="U26" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="8" customFormat="1">
       <c r="A27" s="8">
         <v>19</v>
       </c>
@@ -5168,17 +5234,17 @@
         <v>0</v>
       </c>
       <c r="S27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T27">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="U27" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U27" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28">
         <v>20</v>
       </c>
@@ -5228,17 +5294,17 @@
         <v>0</v>
       </c>
       <c r="S28" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T28">
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="U28" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U28" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29">
         <v>21</v>
       </c>
@@ -5288,17 +5354,17 @@
         <v>0</v>
       </c>
       <c r="S29" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T29">
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="U29" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U29" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30">
         <v>22</v>
       </c>
@@ -5348,17 +5414,17 @@
         <v>0</v>
       </c>
       <c r="S30" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T30">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="U30" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="3" customFormat="1">
       <c r="A31" s="3">
         <v>23</v>
       </c>
@@ -5408,17 +5474,17 @@
         <v>0</v>
       </c>
       <c r="S31" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T31">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="U31" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U31" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" s="3" customFormat="1">
       <c r="A32" s="3">
         <v>24</v>
       </c>
@@ -5468,17 +5534,17 @@
         <v>0</v>
       </c>
       <c r="S32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T32">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="3" customFormat="1">
       <c r="A33" s="3">
         <v>25</v>
       </c>
@@ -5528,17 +5594,17 @@
         <v>0</v>
       </c>
       <c r="S33" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T33">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="U33" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U33" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" s="3" customFormat="1">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -5591,17 +5657,17 @@
         <v>0</v>
       </c>
       <c r="S34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T34">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U34" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="3" customFormat="1">
       <c r="A35" s="3">
         <v>28</v>
       </c>
@@ -5654,17 +5720,17 @@
         <v>0</v>
       </c>
       <c r="S35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T35">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="U35" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U35" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36">
         <v>29</v>
       </c>
@@ -5714,17 +5780,17 @@
         <v>0</v>
       </c>
       <c r="S36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T36">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="U36" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" s="3" customFormat="1">
       <c r="A37" s="3">
         <v>30</v>
       </c>
@@ -5777,17 +5843,17 @@
         <v>0</v>
       </c>
       <c r="S37" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T37">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="U37" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U37" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="3" customFormat="1">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -5840,17 +5906,17 @@
         <v>0</v>
       </c>
       <c r="S38" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T38">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U38" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39">
         <v>32</v>
       </c>
@@ -5903,17 +5969,17 @@
         <v>0</v>
       </c>
       <c r="S39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T39">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="U39" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U39" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40">
         <v>33</v>
       </c>
@@ -5966,17 +6032,17 @@
         <v>0</v>
       </c>
       <c r="S40" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T40">
         <f t="shared" si="2"/>
         <v>38</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U40" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41">
         <v>34</v>
       </c>
@@ -6029,17 +6095,17 @@
         <v>0</v>
       </c>
       <c r="S41" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T41">
         <f t="shared" si="2"/>
         <v>39</v>
       </c>
-      <c r="U41" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U41" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" s="3" customFormat="1">
       <c r="A42" s="3">
         <v>35</v>
       </c>
@@ -6089,17 +6155,17 @@
         <v>0</v>
       </c>
       <c r="S42" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T42">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="U42" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U42" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" s="3" customFormat="1">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -6149,17 +6215,17 @@
         <v>0</v>
       </c>
       <c r="S43" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T43">
         <f t="shared" si="2"/>
         <v>41</v>
       </c>
-      <c r="U43" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U43" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" s="3" customFormat="1">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -6209,17 +6275,17 @@
         <v>0</v>
       </c>
       <c r="S44" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T44">
         <f t="shared" si="2"/>
         <v>42</v>
       </c>
-      <c r="U44" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U44" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" s="3" customFormat="1">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -6269,17 +6335,17 @@
         <v>0</v>
       </c>
       <c r="S45" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T45">
         <f t="shared" si="2"/>
         <v>43</v>
       </c>
-      <c r="U45" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U45" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46">
         <v>39</v>
       </c>
@@ -6329,17 +6395,17 @@
         <v>0</v>
       </c>
       <c r="S46" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T46">
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="U46" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U46" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47">
         <v>41</v>
       </c>
@@ -6389,17 +6455,17 @@
         <v>0</v>
       </c>
       <c r="S47" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T47">
         <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="U47" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U47" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48">
         <v>42</v>
       </c>
@@ -6449,17 +6515,17 @@
         <v>0</v>
       </c>
       <c r="S48" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T48">
         <f t="shared" si="2"/>
         <v>46</v>
       </c>
-      <c r="U48" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U48" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" s="8" customFormat="1">
       <c r="A49" s="8">
         <v>44</v>
       </c>
@@ -6509,17 +6575,17 @@
         <v>0</v>
       </c>
       <c r="S49" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T49">
         <f t="shared" si="2"/>
         <v>47</v>
       </c>
-      <c r="U49" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U49" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" s="3" customFormat="1">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -6569,17 +6635,17 @@
         <v>0</v>
       </c>
       <c r="S50" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T50">
         <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="U50" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U50" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" s="3" customFormat="1">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -6629,17 +6695,17 @@
         <v>0</v>
       </c>
       <c r="S51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T51">
         <f t="shared" si="2"/>
         <v>49</v>
       </c>
-      <c r="U51" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U51" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" s="3" customFormat="1">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -6689,17 +6755,17 @@
         <v>0</v>
       </c>
       <c r="S52" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T52">
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U52" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53">
         <v>48</v>
       </c>
@@ -6749,17 +6815,17 @@
         <v>0</v>
       </c>
       <c r="S53" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T53">
         <f t="shared" si="2"/>
         <v>51</v>
       </c>
-      <c r="U53" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U53" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54">
         <v>49</v>
       </c>
@@ -6809,17 +6875,17 @@
         <v>0</v>
       </c>
       <c r="S54" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T54">
         <f t="shared" si="2"/>
         <v>52</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U54" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6869,17 +6935,17 @@
         <v>0</v>
       </c>
       <c r="S55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T55">
         <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="U55" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U55" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56">
         <v>52</v>
       </c>
@@ -6929,17 +6995,17 @@
         <v>0</v>
       </c>
       <c r="S56" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T56">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U56" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57">
         <v>53</v>
       </c>
@@ -6989,17 +7055,17 @@
         <v>0</v>
       </c>
       <c r="S57" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T57">
         <f t="shared" si="2"/>
         <v>55</v>
       </c>
-      <c r="U57" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U57" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7049,17 +7115,17 @@
         <v>0</v>
       </c>
       <c r="S58" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T58">
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="U58" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U58" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59">
         <v>56</v>
       </c>
@@ -7109,17 +7175,17 @@
         <v>0</v>
       </c>
       <c r="S59" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T59">
         <f t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="U59" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U59" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7169,17 +7235,17 @@
         <v>0</v>
       </c>
       <c r="S60" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T60">
         <f t="shared" si="2"/>
         <v>58</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U60" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7229,17 +7295,17 @@
         <v>0</v>
       </c>
       <c r="S61" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T61">
         <f t="shared" si="2"/>
         <v>59</v>
       </c>
-      <c r="U61" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U61" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7289,17 +7355,17 @@
         <v>0</v>
       </c>
       <c r="S62" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T62">
         <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U62" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7349,17 +7415,17 @@
         <v>0</v>
       </c>
       <c r="S63" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T63">
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="U63" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U63" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7409,17 +7475,17 @@
         <v>0</v>
       </c>
       <c r="S64" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T64">
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="U64" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U64" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7469,17 +7535,17 @@
         <v>0</v>
       </c>
       <c r="S65" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T65">
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="U65" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U65" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
       <c r="A66">
         <v>67</v>
       </c>
@@ -7529,17 +7595,17 @@
         <v>500</v>
       </c>
       <c r="S66" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T66">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="U66" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U66" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21">
       <c r="A67">
         <v>68</v>
       </c>
@@ -7589,17 +7655,17 @@
         <v>1000</v>
       </c>
       <c r="S67" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T67">
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="U67" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U67" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21">
       <c r="A68">
         <v>69</v>
       </c>
@@ -7649,17 +7715,17 @@
         <v>1500</v>
       </c>
       <c r="S68" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T68">
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="U68" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U68" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21">
       <c r="A69">
         <v>70</v>
       </c>
@@ -7709,17 +7775,17 @@
         <v>2000</v>
       </c>
       <c r="S69" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T69">
         <f t="shared" si="2"/>
         <v>67</v>
       </c>
-      <c r="U69" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U69" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21">
       <c r="A70">
         <v>71</v>
       </c>
@@ -7769,17 +7835,17 @@
         <v>2500</v>
       </c>
       <c r="S70" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T70">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="U70" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U70" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21">
       <c r="A71">
         <v>72</v>
       </c>
@@ -7829,17 +7895,17 @@
         <v>3000</v>
       </c>
       <c r="S71" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T71">
         <f t="shared" ref="T71:T134" si="3">ROW()-2</f>
         <v>69</v>
       </c>
-      <c r="U71" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U71" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21">
       <c r="A72">
         <v>73</v>
       </c>
@@ -7889,17 +7955,17 @@
         <v>3500</v>
       </c>
       <c r="S72" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T72">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="U72" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U72" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21">
       <c r="A73">
         <v>74</v>
       </c>
@@ -7949,17 +8015,17 @@
         <v>4000</v>
       </c>
       <c r="S73" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T73">
         <f t="shared" si="3"/>
         <v>71</v>
       </c>
-      <c r="U73" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U73" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21">
       <c r="A74">
         <v>75</v>
       </c>
@@ -8009,17 +8075,17 @@
         <v>4500</v>
       </c>
       <c r="S74" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T74">
         <f t="shared" si="3"/>
         <v>72</v>
       </c>
-      <c r="U74" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U74" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21">
       <c r="A75">
         <v>76</v>
       </c>
@@ -8069,17 +8135,17 @@
         <v>5000</v>
       </c>
       <c r="S75" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T75">
         <f t="shared" si="3"/>
         <v>73</v>
       </c>
-      <c r="U75" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U75" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21">
       <c r="A76">
         <v>77</v>
       </c>
@@ -8129,17 +8195,17 @@
         <v>5500</v>
       </c>
       <c r="S76" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T76">
         <f t="shared" si="3"/>
         <v>74</v>
       </c>
-      <c r="U76" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U76" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21">
       <c r="A77">
         <v>78</v>
       </c>
@@ -8189,17 +8255,17 @@
         <v>6000</v>
       </c>
       <c r="S77" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T77">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="U77" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U77" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21">
       <c r="A78">
         <v>79</v>
       </c>
@@ -8249,17 +8315,17 @@
         <v>6500</v>
       </c>
       <c r="S78" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T78">
         <f t="shared" si="3"/>
         <v>76</v>
       </c>
-      <c r="U78" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U78" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21">
       <c r="A79">
         <v>80</v>
       </c>
@@ -8309,17 +8375,17 @@
         <v>0</v>
       </c>
       <c r="S79" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T79">
         <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="U79" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U79" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21">
       <c r="A80">
         <v>81</v>
       </c>
@@ -8369,17 +8435,17 @@
         <v>0</v>
       </c>
       <c r="S80" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T80">
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U80" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21">
       <c r="A81">
         <v>82</v>
       </c>
@@ -8429,17 +8495,17 @@
         <v>0</v>
       </c>
       <c r="S81" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T81">
         <f t="shared" si="3"/>
         <v>79</v>
       </c>
-      <c r="U81" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U81" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21">
       <c r="A82">
         <v>83</v>
       </c>
@@ -8489,17 +8555,17 @@
         <v>0</v>
       </c>
       <c r="S82" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T82">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="U82" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U82" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21">
       <c r="A83">
         <v>84</v>
       </c>
@@ -8549,17 +8615,17 @@
         <v>7000</v>
       </c>
       <c r="S83" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T83">
         <f t="shared" si="3"/>
         <v>81</v>
       </c>
-      <c r="U83" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U83" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21">
       <c r="A84">
         <v>85</v>
       </c>
@@ -8609,17 +8675,17 @@
         <v>7500</v>
       </c>
       <c r="S84" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T84">
         <f t="shared" si="3"/>
         <v>82</v>
       </c>
-      <c r="U84" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U84" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21">
       <c r="A85">
         <v>88</v>
       </c>
@@ -8669,17 +8735,17 @@
         <v>0</v>
       </c>
       <c r="S85" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T85">
         <f t="shared" si="3"/>
         <v>83</v>
       </c>
-      <c r="U85" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U85" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21">
       <c r="A86">
         <v>89</v>
       </c>
@@ -8729,17 +8795,17 @@
         <v>8000</v>
       </c>
       <c r="S86" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T86">
         <f t="shared" si="3"/>
         <v>84</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U86" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21">
       <c r="A87">
         <v>90</v>
       </c>
@@ -8789,17 +8855,17 @@
         <v>0</v>
       </c>
       <c r="S87" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T87">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="U87" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U87" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21">
       <c r="A88">
         <v>91</v>
       </c>
@@ -8849,17 +8915,17 @@
         <v>0</v>
       </c>
       <c r="S88" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T88">
         <f t="shared" si="3"/>
         <v>86</v>
       </c>
-      <c r="U88" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U88" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21">
       <c r="A89">
         <v>94</v>
       </c>
@@ -8909,17 +8975,17 @@
         <v>8500</v>
       </c>
       <c r="S89" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T89">
         <f t="shared" si="3"/>
         <v>87</v>
       </c>
-      <c r="U89" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U89" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21">
       <c r="A90">
         <v>95</v>
       </c>
@@ -8969,17 +9035,17 @@
         <v>9000</v>
       </c>
       <c r="S90" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T90">
         <f t="shared" si="3"/>
         <v>88</v>
       </c>
-      <c r="U90" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U90" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21">
       <c r="A91">
         <v>96</v>
       </c>
@@ -9029,17 +9095,17 @@
         <v>0</v>
       </c>
       <c r="S91" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T91">
         <f t="shared" si="3"/>
         <v>89</v>
       </c>
-      <c r="U91" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U91" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21">
       <c r="A92">
         <v>97</v>
       </c>
@@ -9089,17 +9155,17 @@
         <v>0</v>
       </c>
       <c r="S92" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T92">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="U92" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U92" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21">
       <c r="A93">
         <v>98</v>
       </c>
@@ -9149,17 +9215,17 @@
         <v>0</v>
       </c>
       <c r="S93" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T93">
         <f t="shared" si="3"/>
         <v>91</v>
       </c>
-      <c r="U93" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U93" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21">
       <c r="A94">
         <v>99</v>
       </c>
@@ -9209,17 +9275,17 @@
         <v>0</v>
       </c>
       <c r="S94" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T94">
         <f t="shared" si="3"/>
         <v>92</v>
       </c>
-      <c r="U94" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U94" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21">
       <c r="A95">
         <v>100</v>
       </c>
@@ -9269,17 +9335,17 @@
         <v>0</v>
       </c>
       <c r="S95" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T95">
         <f t="shared" si="3"/>
         <v>93</v>
       </c>
-      <c r="U95" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U95" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21">
       <c r="A96">
         <v>5</v>
       </c>
@@ -9332,17 +9398,17 @@
         <v>0</v>
       </c>
       <c r="S96" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T96">
         <f t="shared" si="3"/>
         <v>94</v>
       </c>
-      <c r="U96" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U96" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21">
       <c r="A97">
         <v>6</v>
       </c>
@@ -9395,17 +9461,17 @@
         <v>0</v>
       </c>
       <c r="S97" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T97">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="U97" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U97" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21">
       <c r="A98">
         <v>7</v>
       </c>
@@ -9458,17 +9524,17 @@
         <v>0</v>
       </c>
       <c r="S98" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T98">
         <f t="shared" si="3"/>
         <v>96</v>
       </c>
-      <c r="U98" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U98" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21">
       <c r="A99">
         <v>101</v>
       </c>
@@ -9518,17 +9584,17 @@
         <v>0</v>
       </c>
       <c r="S99" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T99">
         <f t="shared" si="3"/>
         <v>97</v>
       </c>
-      <c r="U99" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U99" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21">
       <c r="A100">
         <v>104</v>
       </c>
@@ -9578,17 +9644,17 @@
         <v>9500</v>
       </c>
       <c r="S100" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T100">
         <f t="shared" si="3"/>
         <v>98</v>
       </c>
-      <c r="U100" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U100" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21">
       <c r="A101">
         <v>105</v>
       </c>
@@ -9638,17 +9704,17 @@
         <v>10000</v>
       </c>
       <c r="S101" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T101">
         <f t="shared" si="3"/>
         <v>99</v>
       </c>
-      <c r="U101" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U101" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21">
       <c r="A102">
         <v>106</v>
       </c>
@@ -9698,17 +9764,17 @@
         <v>0</v>
       </c>
       <c r="S102" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T102">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="U102" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U102" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21">
       <c r="A103">
         <v>107</v>
       </c>
@@ -9758,17 +9824,17 @@
         <v>0</v>
       </c>
       <c r="S103" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T103">
         <f t="shared" si="3"/>
         <v>101</v>
       </c>
-      <c r="U103" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U103" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21">
       <c r="A104">
         <v>108</v>
       </c>
@@ -9818,17 +9884,17 @@
         <v>0</v>
       </c>
       <c r="S104" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T104">
         <f t="shared" si="3"/>
         <v>102</v>
       </c>
-      <c r="U104" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U104" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21">
       <c r="A105">
         <v>109</v>
       </c>
@@ -9878,17 +9944,17 @@
         <v>0</v>
       </c>
       <c r="S105" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T105">
         <f t="shared" si="3"/>
         <v>103</v>
       </c>
-      <c r="U105" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U105" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21">
       <c r="A106">
         <v>110</v>
       </c>
@@ -9938,17 +10004,17 @@
         <v>0</v>
       </c>
       <c r="S106" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T106">
         <f t="shared" si="3"/>
         <v>104</v>
       </c>
-      <c r="U106" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U106" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21">
       <c r="A107">
         <v>113</v>
       </c>
@@ -9998,17 +10064,17 @@
         <v>0</v>
       </c>
       <c r="S107" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T107">
         <f t="shared" si="3"/>
         <v>105</v>
       </c>
-      <c r="U107" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U107" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21">
       <c r="A108">
         <v>114</v>
       </c>
@@ -10058,17 +10124,17 @@
         <v>10000</v>
       </c>
       <c r="S108" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T108">
         <f t="shared" si="3"/>
         <v>106</v>
       </c>
-      <c r="U108" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U108" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21">
       <c r="A109">
         <v>115</v>
       </c>
@@ -10118,17 +10184,17 @@
         <v>10000</v>
       </c>
       <c r="S109" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T109">
         <f t="shared" si="3"/>
         <v>107</v>
       </c>
-      <c r="U109" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U109" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21">
       <c r="A110">
         <v>116</v>
       </c>
@@ -10178,17 +10244,17 @@
         <v>10500</v>
       </c>
       <c r="S110" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T110">
         <f t="shared" si="3"/>
         <v>108</v>
       </c>
-      <c r="U110" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U110" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21">
       <c r="A111">
         <v>117</v>
       </c>
@@ -10238,17 +10304,17 @@
         <v>11000</v>
       </c>
       <c r="S111" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T111">
         <f t="shared" si="3"/>
         <v>109</v>
       </c>
-      <c r="U111" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U111" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21">
       <c r="A112">
         <v>118</v>
       </c>
@@ -10298,17 +10364,17 @@
         <v>0</v>
       </c>
       <c r="S112" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T112">
         <f t="shared" si="3"/>
         <v>110</v>
       </c>
-      <c r="U112" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U112" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21">
       <c r="A113">
         <v>119</v>
       </c>
@@ -10358,17 +10424,17 @@
         <v>0</v>
       </c>
       <c r="S113" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T113">
         <f t="shared" si="3"/>
         <v>111</v>
       </c>
-      <c r="U113" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U113" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21">
       <c r="A114">
         <v>120</v>
       </c>
@@ -10418,17 +10484,17 @@
         <v>0</v>
       </c>
       <c r="S114" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T114">
         <f t="shared" si="3"/>
         <v>112</v>
       </c>
-      <c r="U114" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U114" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21">
       <c r="A115">
         <v>123</v>
       </c>
@@ -10478,17 +10544,17 @@
         <v>0</v>
       </c>
       <c r="S115" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T115">
         <f t="shared" si="3"/>
         <v>113</v>
       </c>
-      <c r="U115" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U115" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21">
       <c r="A116">
         <v>125</v>
       </c>
@@ -10538,17 +10604,17 @@
         <v>0</v>
       </c>
       <c r="S116" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T116">
         <f t="shared" si="3"/>
         <v>114</v>
       </c>
-      <c r="U116" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="117" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U116" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" ht="15.75" customHeight="1">
       <c r="A117">
         <v>126</v>
       </c>
@@ -10598,17 +10664,17 @@
         <v>11500</v>
       </c>
       <c r="S117" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T117">
         <f t="shared" si="3"/>
         <v>115</v>
       </c>
-      <c r="U117" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U117" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21">
       <c r="A118">
         <v>127</v>
       </c>
@@ -10658,17 +10724,17 @@
         <v>12000</v>
       </c>
       <c r="S118" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T118">
         <f t="shared" si="3"/>
         <v>116</v>
       </c>
-      <c r="U118" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="119" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U118" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" s="3" customFormat="1">
       <c r="A119" s="3">
         <v>128</v>
       </c>
@@ -10721,17 +10787,17 @@
         <v>0</v>
       </c>
       <c r="S119" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T119">
         <f t="shared" si="3"/>
         <v>117</v>
       </c>
-      <c r="U119" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="120" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U119" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" s="3" customFormat="1">
       <c r="A120" s="3">
         <v>129</v>
       </c>
@@ -10784,17 +10850,17 @@
         <v>0</v>
       </c>
       <c r="S120" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T120">
         <f t="shared" si="3"/>
         <v>118</v>
       </c>
-      <c r="U120" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="121" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U120" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" s="3" customFormat="1">
       <c r="A121" s="3">
         <v>130</v>
       </c>
@@ -10847,17 +10913,17 @@
         <v>0</v>
       </c>
       <c r="S121" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T121">
         <f t="shared" si="3"/>
         <v>119</v>
       </c>
-      <c r="U121" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="122" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U121" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" s="3" customFormat="1">
       <c r="A122" s="3">
         <v>131</v>
       </c>
@@ -10910,17 +10976,17 @@
         <v>0</v>
       </c>
       <c r="S122" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T122">
         <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="U122" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="123" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U122" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" s="3" customFormat="1">
       <c r="A123" s="3">
         <v>132</v>
       </c>
@@ -10973,17 +11039,17 @@
         <v>0</v>
       </c>
       <c r="S123" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T123">
         <f t="shared" si="3"/>
         <v>121</v>
       </c>
-      <c r="U123" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U123" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21">
       <c r="A124">
         <v>133</v>
       </c>
@@ -11033,17 +11099,17 @@
         <v>0</v>
       </c>
       <c r="S124" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T124">
         <f t="shared" si="3"/>
         <v>122</v>
       </c>
-      <c r="U124" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U124" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21">
       <c r="A125">
         <v>134</v>
       </c>
@@ -11093,17 +11159,17 @@
         <v>0</v>
       </c>
       <c r="S125" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T125">
         <f t="shared" si="3"/>
         <v>123</v>
       </c>
-      <c r="U125" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U125" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21">
       <c r="A126">
         <v>137</v>
       </c>
@@ -11153,17 +11219,17 @@
         <v>0</v>
       </c>
       <c r="S126" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T126">
         <f t="shared" si="3"/>
         <v>124</v>
       </c>
-      <c r="U126" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U126" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21">
       <c r="A127">
         <v>138</v>
       </c>
@@ -11213,17 +11279,17 @@
         <v>0</v>
       </c>
       <c r="S127" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T127">
         <f t="shared" si="3"/>
         <v>125</v>
       </c>
-      <c r="U127" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U127" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" s="3" customFormat="1">
       <c r="A128" s="3">
         <v>141</v>
       </c>
@@ -11276,17 +11342,17 @@
         <v>0</v>
       </c>
       <c r="S128" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T128">
         <f t="shared" si="3"/>
         <v>126</v>
       </c>
-      <c r="U128" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U128" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21">
       <c r="A129">
         <v>142</v>
       </c>
@@ -11336,17 +11402,17 @@
         <v>0</v>
       </c>
       <c r="S129" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T129">
         <f t="shared" si="3"/>
         <v>127</v>
       </c>
-      <c r="U129" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U129" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21">
       <c r="A130">
         <v>143</v>
       </c>
@@ -11396,17 +11462,17 @@
         <v>0</v>
       </c>
       <c r="S130" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T130">
         <f t="shared" si="3"/>
         <v>128</v>
       </c>
-      <c r="U130" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="131" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U130" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" s="2" customFormat="1">
       <c r="A131" s="2">
         <v>182</v>
       </c>
@@ -11456,17 +11522,17 @@
         <v>0</v>
       </c>
       <c r="S131" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T131">
         <f t="shared" si="3"/>
         <v>129</v>
       </c>
-      <c r="U131" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U131" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21">
       <c r="A132">
         <v>199</v>
       </c>
@@ -11518,17 +11584,17 @@
         <v>0</v>
       </c>
       <c r="S132" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T132">
         <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="U132" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U132" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21">
       <c r="A133">
         <v>200</v>
       </c>
@@ -11580,17 +11646,17 @@
         <v>0</v>
       </c>
       <c r="S133" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T133">
         <f t="shared" si="3"/>
         <v>131</v>
       </c>
-      <c r="U133" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="134" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U133" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" s="2" customFormat="1">
       <c r="A134" s="2">
         <v>183</v>
       </c>
@@ -11640,17 +11706,17 @@
         <v>0</v>
       </c>
       <c r="S134" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T134">
         <f t="shared" si="3"/>
         <v>132</v>
       </c>
-      <c r="U134" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="135" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U134" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" s="2" customFormat="1">
       <c r="A135" s="2">
         <v>184</v>
       </c>
@@ -11700,17 +11766,17 @@
         <v>0</v>
       </c>
       <c r="S135" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T135">
         <f t="shared" ref="T135:T198" si="4">ROW()-2</f>
         <v>133</v>
       </c>
-      <c r="U135" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="136" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U135" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" s="2" customFormat="1">
       <c r="A136" s="2">
         <v>185</v>
       </c>
@@ -11760,17 +11826,17 @@
         <v>0</v>
       </c>
       <c r="S136" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T136">
         <f t="shared" si="4"/>
         <v>134</v>
       </c>
-      <c r="U136" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="137" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U136" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" s="2" customFormat="1">
       <c r="A137" s="2">
         <v>186</v>
       </c>
@@ -11820,17 +11886,17 @@
         <v>0</v>
       </c>
       <c r="S137" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T137">
         <f t="shared" si="4"/>
         <v>135</v>
       </c>
-      <c r="U137" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="138" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U137" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" ht="22.5" customHeight="1">
       <c r="A138">
         <v>181</v>
       </c>
@@ -11880,17 +11946,17 @@
         <v>0</v>
       </c>
       <c r="S138" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T138">
         <f t="shared" si="4"/>
         <v>136</v>
       </c>
-      <c r="U138" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U138" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21">
       <c r="A139">
         <v>182</v>
       </c>
@@ -11940,17 +12006,17 @@
         <v>0</v>
       </c>
       <c r="S139" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T139">
         <f t="shared" si="4"/>
         <v>137</v>
       </c>
-      <c r="U139" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="140" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U139" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" s="3" customFormat="1">
       <c r="A140" s="3">
         <v>172</v>
       </c>
@@ -12000,17 +12066,17 @@
         <v>0</v>
       </c>
       <c r="S140" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T140">
         <f t="shared" si="4"/>
         <v>138</v>
       </c>
-      <c r="U140" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="141" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U140" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" s="3" customFormat="1">
       <c r="A141" s="3">
         <v>173</v>
       </c>
@@ -12060,17 +12126,17 @@
         <v>0</v>
       </c>
       <c r="S141" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T141">
         <f t="shared" si="4"/>
         <v>139</v>
       </c>
-      <c r="U141" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="142" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U141" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" ht="19.5" customHeight="1">
       <c r="A142" s="3">
         <v>160</v>
       </c>
@@ -12122,17 +12188,17 @@
         <v>0</v>
       </c>
       <c r="S142" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T142">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="U142" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U142" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21">
       <c r="A143" s="3">
         <v>161</v>
       </c>
@@ -12184,17 +12250,17 @@
         <v>0</v>
       </c>
       <c r="S143" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T143">
         <f t="shared" si="4"/>
         <v>141</v>
       </c>
-      <c r="U143" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U143" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21">
       <c r="A144">
         <v>144</v>
       </c>
@@ -12244,17 +12310,17 @@
         <v>0</v>
       </c>
       <c r="S144" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T144">
         <f t="shared" si="4"/>
         <v>142</v>
       </c>
-      <c r="U144" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U144" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21">
       <c r="A145">
         <v>145</v>
       </c>
@@ -12304,17 +12370,17 @@
         <v>0</v>
       </c>
       <c r="S145" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T145">
         <f t="shared" si="4"/>
         <v>143</v>
       </c>
-      <c r="U145" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U145" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21">
       <c r="A146">
         <v>146</v>
       </c>
@@ -12364,17 +12430,17 @@
         <v>0</v>
       </c>
       <c r="S146" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T146">
         <f t="shared" si="4"/>
         <v>144</v>
       </c>
-      <c r="U146" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U146" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21">
       <c r="A147">
         <v>147</v>
       </c>
@@ -12424,17 +12490,17 @@
         <v>0</v>
       </c>
       <c r="S147" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T147">
         <f t="shared" si="4"/>
         <v>145</v>
       </c>
-      <c r="U147" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U147" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21">
       <c r="A148">
         <v>148</v>
       </c>
@@ -12484,17 +12550,17 @@
         <v>0</v>
       </c>
       <c r="S148" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T148">
         <f t="shared" si="4"/>
         <v>146</v>
       </c>
-      <c r="U148" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U148" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21">
       <c r="A149">
         <v>149</v>
       </c>
@@ -12544,17 +12610,17 @@
         <v>0</v>
       </c>
       <c r="S149" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T149">
         <f t="shared" si="4"/>
         <v>147</v>
       </c>
-      <c r="U149" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U149" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21">
       <c r="A150">
         <v>150</v>
       </c>
@@ -12604,17 +12670,17 @@
         <v>12500</v>
       </c>
       <c r="S150" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T150">
         <f t="shared" si="4"/>
         <v>148</v>
       </c>
-      <c r="U150" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U150" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21">
       <c r="A151">
         <v>153</v>
       </c>
@@ -12664,17 +12730,17 @@
         <v>13000</v>
       </c>
       <c r="S151" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T151">
         <f t="shared" si="4"/>
         <v>149</v>
       </c>
-      <c r="U151" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U151" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21">
       <c r="A152">
         <v>154</v>
       </c>
@@ -12724,17 +12790,17 @@
         <v>0</v>
       </c>
       <c r="S152" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T152">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="U152" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U152" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21">
       <c r="A153">
         <v>155</v>
       </c>
@@ -12784,17 +12850,17 @@
         <v>0</v>
       </c>
       <c r="S153" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T153">
         <f t="shared" si="4"/>
         <v>151</v>
       </c>
-      <c r="U153" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U153" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21">
       <c r="A154">
         <v>156</v>
       </c>
@@ -12844,17 +12910,17 @@
         <v>0</v>
       </c>
       <c r="S154" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T154">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="U154" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U154" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21">
       <c r="A155">
         <v>157</v>
       </c>
@@ -12904,17 +12970,17 @@
         <v>0</v>
       </c>
       <c r="S155" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T155">
         <f t="shared" si="4"/>
         <v>153</v>
       </c>
-      <c r="U155" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U155" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21">
       <c r="A156">
         <v>158</v>
       </c>
@@ -12964,17 +13030,17 @@
         <v>0</v>
       </c>
       <c r="S156" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T156">
         <f t="shared" si="4"/>
         <v>154</v>
       </c>
-      <c r="U156" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U156" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21">
       <c r="A157">
         <v>159</v>
       </c>
@@ -13024,17 +13090,17 @@
         <v>0</v>
       </c>
       <c r="S157" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T157">
         <f t="shared" si="4"/>
         <v>155</v>
       </c>
-      <c r="U157" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="158" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U157" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" s="3" customFormat="1">
       <c r="A158">
         <v>162</v>
       </c>
@@ -13086,17 +13152,17 @@
         <v>0</v>
       </c>
       <c r="S158" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T158">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="U158" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="159" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U158" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" s="3" customFormat="1">
       <c r="A159">
         <v>163</v>
       </c>
@@ -13148,17 +13214,17 @@
         <v>13500</v>
       </c>
       <c r="S159" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T159">
         <f t="shared" si="4"/>
         <v>157</v>
       </c>
-      <c r="U159" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="160" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U159" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" s="3" customFormat="1">
       <c r="A160" s="3">
         <v>164</v>
       </c>
@@ -13208,17 +13274,17 @@
         <v>0</v>
       </c>
       <c r="S160" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T160">
         <f t="shared" si="4"/>
         <v>158</v>
       </c>
-      <c r="U160" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U160" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21">
       <c r="A161" s="3">
         <v>165</v>
       </c>
@@ -13270,17 +13336,17 @@
         <v>0</v>
       </c>
       <c r="S161" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T161">
         <f t="shared" si="4"/>
         <v>159</v>
       </c>
-      <c r="U161" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U161" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21">
       <c r="A162" s="3">
         <v>166</v>
       </c>
@@ -13332,17 +13398,17 @@
         <v>0</v>
       </c>
       <c r="S162" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T162">
         <f t="shared" si="4"/>
         <v>160</v>
       </c>
-      <c r="U162" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U162" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21">
       <c r="A163">
         <v>167</v>
       </c>
@@ -13392,17 +13458,17 @@
         <v>0</v>
       </c>
       <c r="S163" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T163">
         <f t="shared" si="4"/>
         <v>161</v>
       </c>
-      <c r="U163" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U163" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21">
       <c r="A164">
         <v>168</v>
       </c>
@@ -13452,17 +13518,17 @@
         <v>0</v>
       </c>
       <c r="S164" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T164">
         <f t="shared" si="4"/>
         <v>162</v>
       </c>
-      <c r="U164" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U164" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21">
       <c r="A165">
         <v>169</v>
       </c>
@@ -13512,17 +13578,17 @@
         <v>0</v>
       </c>
       <c r="S165" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T165">
         <f t="shared" si="4"/>
         <v>163</v>
       </c>
-      <c r="U165" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U165" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21">
       <c r="A166">
         <v>170</v>
       </c>
@@ -13578,11 +13644,11 @@
         <f t="shared" si="4"/>
         <v>164</v>
       </c>
-      <c r="U166" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U166" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21">
       <c r="A167">
         <v>171</v>
       </c>
@@ -13632,17 +13698,17 @@
         <v>0</v>
       </c>
       <c r="S167" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T167">
         <f t="shared" si="4"/>
         <v>165</v>
       </c>
-      <c r="U167" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U167" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21">
       <c r="A168">
         <v>172</v>
       </c>
@@ -13692,17 +13758,17 @@
         <v>0</v>
       </c>
       <c r="S168" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T168">
         <f t="shared" si="4"/>
         <v>166</v>
       </c>
-      <c r="U168" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U168" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21">
       <c r="A169">
         <v>173</v>
       </c>
@@ -13752,17 +13818,17 @@
         <v>0</v>
       </c>
       <c r="S169" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T169">
         <f t="shared" si="4"/>
         <v>167</v>
       </c>
-      <c r="U169" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U169" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21">
       <c r="A170">
         <v>174</v>
       </c>
@@ -13812,17 +13878,17 @@
         <v>0</v>
       </c>
       <c r="S170" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T170">
         <f t="shared" si="4"/>
         <v>168</v>
       </c>
-      <c r="U170" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U170" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21">
       <c r="A171">
         <v>175</v>
       </c>
@@ -13872,17 +13938,17 @@
         <v>0</v>
       </c>
       <c r="S171" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T171">
         <f t="shared" si="4"/>
         <v>169</v>
       </c>
-      <c r="U171" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U171" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21">
       <c r="A172">
         <v>176</v>
       </c>
@@ -13932,17 +13998,17 @@
         <v>0</v>
       </c>
       <c r="S172" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T172">
         <f t="shared" si="4"/>
         <v>170</v>
       </c>
-      <c r="U172" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U172" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21">
       <c r="A173">
         <v>177</v>
       </c>
@@ -13998,11 +14064,11 @@
         <f t="shared" si="4"/>
         <v>171</v>
       </c>
-      <c r="U173" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U173" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21">
       <c r="A174">
         <v>178</v>
       </c>
@@ -14052,17 +14118,17 @@
         <v>0</v>
       </c>
       <c r="S174" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T174">
         <f t="shared" si="4"/>
         <v>172</v>
       </c>
-      <c r="U174" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U174" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21">
       <c r="A175">
         <v>179</v>
       </c>
@@ -14112,17 +14178,17 @@
         <v>14000</v>
       </c>
       <c r="S175" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T175">
         <f t="shared" si="4"/>
         <v>173</v>
       </c>
-      <c r="U175" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U175" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21">
       <c r="A176">
         <v>180</v>
       </c>
@@ -14172,17 +14238,17 @@
         <v>0</v>
       </c>
       <c r="S176" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T176">
         <f t="shared" si="4"/>
         <v>174</v>
       </c>
-      <c r="U176" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U176" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21">
       <c r="A177">
         <v>181</v>
       </c>
@@ -14232,17 +14298,17 @@
         <v>0</v>
       </c>
       <c r="S177" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T177">
         <f t="shared" si="4"/>
         <v>175</v>
       </c>
-      <c r="U177" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U177" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21">
       <c r="A178">
         <v>139</v>
       </c>
@@ -14292,17 +14358,17 @@
         <v>0</v>
       </c>
       <c r="S178" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T178">
         <f t="shared" si="4"/>
         <v>176</v>
       </c>
-      <c r="U178" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U178" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21">
       <c r="A179">
         <v>140</v>
       </c>
@@ -14352,17 +14418,17 @@
         <v>0</v>
       </c>
       <c r="S179" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T179">
         <f t="shared" si="4"/>
         <v>177</v>
       </c>
-      <c r="U179" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U179" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21">
       <c r="A180">
         <v>187</v>
       </c>
@@ -14412,17 +14478,17 @@
         <v>0</v>
       </c>
       <c r="S180" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T180">
         <f t="shared" si="4"/>
         <v>178</v>
       </c>
-      <c r="U180" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U180" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21">
       <c r="A181">
         <v>188</v>
       </c>
@@ -14472,17 +14538,17 @@
         <v>0</v>
       </c>
       <c r="S181" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T181">
         <f t="shared" si="4"/>
         <v>179</v>
       </c>
-      <c r="U181" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U181" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21">
       <c r="A182">
         <v>189</v>
       </c>
@@ -14532,17 +14598,17 @@
         <v>0</v>
       </c>
       <c r="S182" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T182">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="U182" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U182" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21">
       <c r="A183">
         <v>190</v>
       </c>
@@ -14598,11 +14664,11 @@
         <f t="shared" si="4"/>
         <v>181</v>
       </c>
-      <c r="U183" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U183" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21">
       <c r="A184">
         <v>191</v>
       </c>
@@ -14652,17 +14718,17 @@
         <v>0</v>
       </c>
       <c r="S184" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T184">
         <f t="shared" si="4"/>
         <v>182</v>
       </c>
-      <c r="U184" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U184" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21">
       <c r="A185">
         <v>192</v>
       </c>
@@ -14712,17 +14778,17 @@
         <v>0</v>
       </c>
       <c r="S185" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T185">
         <f t="shared" si="4"/>
         <v>183</v>
       </c>
-      <c r="U185" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U185" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21">
       <c r="A186">
         <v>193</v>
       </c>
@@ -14772,17 +14838,17 @@
         <v>0</v>
       </c>
       <c r="S186" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T186">
         <f t="shared" si="4"/>
         <v>184</v>
       </c>
-      <c r="U186" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U186" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21">
       <c r="A187">
         <v>194</v>
       </c>
@@ -14832,17 +14898,17 @@
         <v>0</v>
       </c>
       <c r="S187" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T187">
         <f t="shared" si="4"/>
         <v>185</v>
       </c>
-      <c r="U187" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U187" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21">
       <c r="A188">
         <v>195</v>
       </c>
@@ -14892,17 +14958,17 @@
         <v>0</v>
       </c>
       <c r="S188" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T188">
         <f t="shared" si="4"/>
         <v>186</v>
       </c>
-      <c r="U188" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U188" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21">
       <c r="A189">
         <v>196</v>
       </c>
@@ -14952,17 +15018,17 @@
         <v>14500</v>
       </c>
       <c r="S189" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T189">
         <f t="shared" si="4"/>
         <v>187</v>
       </c>
-      <c r="U189" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U189" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21">
       <c r="A190">
         <v>197</v>
       </c>
@@ -15012,17 +15078,17 @@
         <v>0</v>
       </c>
       <c r="S190" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T190">
         <f t="shared" si="4"/>
         <v>188</v>
       </c>
-      <c r="U190" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U190" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21">
       <c r="A191">
         <v>198</v>
       </c>
@@ -15072,17 +15138,17 @@
         <v>0</v>
       </c>
       <c r="S191" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T191">
         <f t="shared" si="4"/>
         <v>189</v>
       </c>
-      <c r="U191" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U191" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21">
       <c r="A192">
         <v>199</v>
       </c>
@@ -15132,17 +15198,17 @@
         <v>15000</v>
       </c>
       <c r="S192" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T192">
         <f t="shared" si="4"/>
         <v>190</v>
       </c>
-      <c r="U192" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U192" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21">
       <c r="A193">
         <v>201</v>
       </c>
@@ -15192,17 +15258,17 @@
         <v>0</v>
       </c>
       <c r="S193" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T193">
         <f t="shared" si="4"/>
         <v>191</v>
       </c>
-      <c r="U193" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U193" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21">
       <c r="A194">
         <v>202</v>
       </c>
@@ -15252,17 +15318,17 @@
         <v>0</v>
       </c>
       <c r="S194" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T194">
         <f t="shared" si="4"/>
         <v>192</v>
       </c>
-      <c r="U194" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U194" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21">
       <c r="A195">
         <v>203</v>
       </c>
@@ -15318,11 +15384,11 @@
         <f t="shared" si="4"/>
         <v>193</v>
       </c>
-      <c r="U195" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U195" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21">
       <c r="A196">
         <v>204</v>
       </c>
@@ -15372,17 +15438,17 @@
         <v>0</v>
       </c>
       <c r="S196" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T196">
         <f t="shared" si="4"/>
         <v>194</v>
       </c>
-      <c r="U196" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U196" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21">
       <c r="A197">
         <v>205</v>
       </c>
@@ -15432,17 +15498,17 @@
         <v>0</v>
       </c>
       <c r="S197" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T197">
         <f t="shared" si="4"/>
         <v>195</v>
       </c>
-      <c r="U197" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U197" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21">
       <c r="A198">
         <v>206</v>
       </c>
@@ -15492,17 +15558,17 @@
         <v>0</v>
       </c>
       <c r="S198" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T198">
         <f t="shared" si="4"/>
         <v>196</v>
       </c>
-      <c r="U198" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U198" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21">
       <c r="A199">
         <v>207</v>
       </c>
@@ -15552,17 +15618,17 @@
         <v>0</v>
       </c>
       <c r="S199" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T199">
-        <f t="shared" ref="T199:T240" si="5">ROW()-2</f>
+        <f t="shared" ref="T199:T248" si="5">ROW()-2</f>
         <v>197</v>
       </c>
-      <c r="U199" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U199" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21">
       <c r="A200">
         <v>208</v>
       </c>
@@ -15612,17 +15678,17 @@
         <v>0</v>
       </c>
       <c r="S200" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T200">
         <f t="shared" si="5"/>
         <v>198</v>
       </c>
-      <c r="U200" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U200" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21">
       <c r="A201">
         <v>209</v>
       </c>
@@ -15672,17 +15738,17 @@
         <v>0</v>
       </c>
       <c r="S201" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T201">
         <f t="shared" si="5"/>
         <v>199</v>
       </c>
-      <c r="U201" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U201" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21">
       <c r="A202">
         <v>210</v>
       </c>
@@ -15732,17 +15798,17 @@
         <v>15500</v>
       </c>
       <c r="S202" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T202">
         <f t="shared" si="5"/>
         <v>200</v>
       </c>
-      <c r="U202" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U202" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21">
       <c r="A203">
         <v>211</v>
       </c>
@@ -15792,17 +15858,17 @@
         <v>0</v>
       </c>
       <c r="S203" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T203">
         <f t="shared" si="5"/>
         <v>201</v>
       </c>
-      <c r="U203" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U203" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21">
       <c r="A204">
         <v>212</v>
       </c>
@@ -15852,17 +15918,17 @@
         <v>0</v>
       </c>
       <c r="S204" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T204">
         <f t="shared" si="5"/>
         <v>202</v>
       </c>
-      <c r="U204" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U204" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21">
       <c r="A205">
         <v>213</v>
       </c>
@@ -15918,11 +15984,11 @@
         <f t="shared" si="5"/>
         <v>203</v>
       </c>
-      <c r="U205" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U205" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21">
       <c r="A206">
         <v>215</v>
       </c>
@@ -15972,17 +16038,17 @@
         <v>0</v>
       </c>
       <c r="S206" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T206">
         <f t="shared" si="5"/>
         <v>204</v>
       </c>
-      <c r="U206" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U206" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21">
       <c r="A207">
         <v>216</v>
       </c>
@@ -16032,17 +16098,17 @@
         <v>0</v>
       </c>
       <c r="S207" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T207">
         <f t="shared" si="5"/>
         <v>205</v>
       </c>
-      <c r="U207" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U207" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21">
       <c r="A208">
         <v>217</v>
       </c>
@@ -16092,17 +16158,17 @@
         <v>0</v>
       </c>
       <c r="S208" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T208">
         <f t="shared" si="5"/>
         <v>206</v>
       </c>
-      <c r="U208" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="209" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U208" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" s="3" customFormat="1">
       <c r="A209" s="3">
         <v>124</v>
       </c>
@@ -16152,17 +16218,17 @@
         <v>0</v>
       </c>
       <c r="S209" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T209">
         <f t="shared" si="5"/>
         <v>207</v>
       </c>
-      <c r="U209" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="210" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U209" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" s="3" customFormat="1">
       <c r="A210" s="3">
         <v>219</v>
       </c>
@@ -16173,7 +16239,7 @@
         <v>0</v>
       </c>
       <c r="D210" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F210" s="4" t="s">
         <v>598</v>
@@ -16187,8 +16253,8 @@
       <c r="I210" s="3">
         <v>50000</v>
       </c>
-      <c r="J210" s="11" t="s">
-        <v>602</v>
+      <c r="J210" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="K210" s="3">
         <v>4</v>
@@ -16212,28 +16278,28 @@
         <v>0</v>
       </c>
       <c r="S210" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T210">
         <f t="shared" si="5"/>
         <v>208</v>
       </c>
-      <c r="U210" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U210" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21">
       <c r="A211">
         <v>220</v>
       </c>
       <c r="B211" t="s">
+        <v>603</v>
+      </c>
+      <c r="C211" t="b">
+        <v>0</v>
+      </c>
+      <c r="D211" t="s">
         <v>604</v>
-      </c>
-      <c r="C211" t="b">
-        <v>0</v>
-      </c>
-      <c r="D211" t="s">
-        <v>605</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>16</v>
@@ -16263,7 +16329,7 @@
         <v>0</v>
       </c>
       <c r="P211" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="Q211">
         <v>0</v>
@@ -16272,28 +16338,28 @@
         <v>0</v>
       </c>
       <c r="S211" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T211">
         <f t="shared" si="5"/>
         <v>209</v>
       </c>
-      <c r="U211" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U211" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21">
       <c r="A212">
         <v>221</v>
       </c>
       <c r="B212" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C212" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D212" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>16</v>
@@ -16323,7 +16389,7 @@
         <v>0</v>
       </c>
       <c r="P212" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q212">
         <v>0</v>
@@ -16332,28 +16398,28 @@
         <v>0</v>
       </c>
       <c r="S212" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T212">
         <f t="shared" si="5"/>
         <v>210</v>
       </c>
-      <c r="U212" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U212" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21">
       <c r="A213">
         <v>222</v>
       </c>
       <c r="B213" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
       </c>
       <c r="D213" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>16</v>
@@ -16383,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="P213" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Q213">
         <v>0</v>
@@ -16392,34 +16458,34 @@
         <v>0</v>
       </c>
       <c r="S213" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T213">
         <f t="shared" si="5"/>
         <v>211</v>
       </c>
-      <c r="U213" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U213" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21">
       <c r="A214">
         <v>223</v>
       </c>
       <c r="B214" t="s">
+        <v>609</v>
+      </c>
+      <c r="C214" t="b">
+        <v>0</v>
+      </c>
+      <c r="D214" t="s">
+        <v>613</v>
+      </c>
+      <c r="F214" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C214" t="b">
-        <v>0</v>
-      </c>
-      <c r="D214" t="s">
-        <v>614</v>
-      </c>
-      <c r="F214" s="1" t="s">
+      <c r="G214" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="G214" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H214" t="s">
         <v>124</v>
@@ -16443,7 +16509,7 @@
         <v>0</v>
       </c>
       <c r="P214" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="Q214">
         <v>1</v>
@@ -16452,28 +16518,28 @@
         <v>16000</v>
       </c>
       <c r="S214" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T214">
         <f t="shared" si="5"/>
         <v>212</v>
       </c>
-      <c r="U214" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U214" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21">
       <c r="A215">
         <v>224</v>
       </c>
       <c r="B215" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C215" t="b">
         <v>0</v>
       </c>
       <c r="D215" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>16</v>
@@ -16503,7 +16569,7 @@
         <v>0</v>
       </c>
       <c r="P215" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="Q215">
         <v>0</v>
@@ -16512,28 +16578,28 @@
         <v>0</v>
       </c>
       <c r="S215" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T215">
         <f t="shared" si="5"/>
         <v>213</v>
       </c>
-      <c r="U215" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U215" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21">
       <c r="A216">
         <v>225</v>
       </c>
       <c r="B216" t="s">
+        <v>615</v>
+      </c>
+      <c r="C216" t="b">
+        <v>0</v>
+      </c>
+      <c r="D216" t="s">
         <v>616</v>
-      </c>
-      <c r="C216" t="b">
-        <v>0</v>
-      </c>
-      <c r="D216" t="s">
-        <v>617</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>16</v>
@@ -16563,7 +16629,7 @@
         <v>0</v>
       </c>
       <c r="P216" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="Q216">
         <v>0</v>
@@ -16578,22 +16644,22 @@
         <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="U216" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U216" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21">
       <c r="A217">
         <v>226</v>
       </c>
       <c r="B217" t="s">
+        <v>620</v>
+      </c>
+      <c r="C217" t="b">
+        <v>0</v>
+      </c>
+      <c r="D217" t="s">
         <v>621</v>
-      </c>
-      <c r="C217" t="b">
-        <v>0</v>
-      </c>
-      <c r="D217" t="s">
-        <v>622</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>16</v>
@@ -16623,7 +16689,7 @@
         <v>0</v>
       </c>
       <c r="P217" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="Q217">
         <v>0</v>
@@ -16632,28 +16698,28 @@
         <v>0</v>
       </c>
       <c r="S217" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="T217">
         <f t="shared" si="5"/>
         <v>215</v>
       </c>
-      <c r="U217" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U217" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21">
       <c r="A218">
         <v>227</v>
       </c>
       <c r="B218" t="s">
+        <v>622</v>
+      </c>
+      <c r="C218" t="b">
+        <v>0</v>
+      </c>
+      <c r="D218" t="s">
         <v>623</v>
-      </c>
-      <c r="C218" t="b">
-        <v>0</v>
-      </c>
-      <c r="D218" t="s">
-        <v>624</v>
       </c>
       <c r="F218" s="1" t="s">
         <v>16</v>
@@ -16683,7 +16749,7 @@
         <v>0</v>
       </c>
       <c r="P218" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="Q218">
         <v>0</v>
@@ -16692,28 +16758,28 @@
         <v>0</v>
       </c>
       <c r="S218" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T218">
         <f t="shared" si="5"/>
         <v>216</v>
       </c>
-      <c r="U218" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U218" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21">
       <c r="A219">
         <v>228</v>
       </c>
       <c r="B219" t="s">
+        <v>629</v>
+      </c>
+      <c r="C219" t="b">
+        <v>0</v>
+      </c>
+      <c r="D219" t="s">
         <v>630</v>
-      </c>
-      <c r="C219" t="b">
-        <v>0</v>
-      </c>
-      <c r="D219" t="s">
-        <v>631</v>
       </c>
       <c r="F219" s="1" t="s">
         <v>16</v>
@@ -16743,7 +16809,7 @@
         <v>0</v>
       </c>
       <c r="P219" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="Q219">
         <v>0</v>
@@ -16752,28 +16818,28 @@
         <v>0</v>
       </c>
       <c r="S219" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T219">
         <f t="shared" si="5"/>
         <v>217</v>
       </c>
-      <c r="U219" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U219" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21">
       <c r="A220">
         <v>229</v>
       </c>
       <c r="B220" t="s">
+        <v>631</v>
+      </c>
+      <c r="C220" t="b">
+        <v>0</v>
+      </c>
+      <c r="D220" t="s">
         <v>632</v>
-      </c>
-      <c r="C220" t="b">
-        <v>0</v>
-      </c>
-      <c r="D220" t="s">
-        <v>633</v>
       </c>
       <c r="F220" s="1" t="s">
         <v>16</v>
@@ -16803,7 +16869,7 @@
         <v>0</v>
       </c>
       <c r="P220" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="Q220">
         <v>0</v>
@@ -16812,28 +16878,28 @@
         <v>0</v>
       </c>
       <c r="S220" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T220">
         <f t="shared" si="5"/>
         <v>218</v>
       </c>
-      <c r="U220" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U220" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21">
       <c r="A221">
         <v>230</v>
       </c>
       <c r="B221" t="s">
+        <v>633</v>
+      </c>
+      <c r="C221" t="b">
+        <v>0</v>
+      </c>
+      <c r="D221" t="s">
         <v>634</v>
-      </c>
-      <c r="C221" t="b">
-        <v>0</v>
-      </c>
-      <c r="D221" t="s">
-        <v>635</v>
       </c>
       <c r="F221" s="1" t="s">
         <v>16</v>
@@ -16863,7 +16929,7 @@
         <v>0</v>
       </c>
       <c r="P221" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="Q221">
         <v>0</v>
@@ -16872,28 +16938,28 @@
         <v>0</v>
       </c>
       <c r="S221" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T221">
         <f t="shared" si="5"/>
         <v>219</v>
       </c>
-      <c r="U221" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U221" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21">
       <c r="A222">
         <v>231</v>
       </c>
       <c r="B222" t="s">
+        <v>635</v>
+      </c>
+      <c r="C222" t="b">
+        <v>0</v>
+      </c>
+      <c r="D222" t="s">
         <v>636</v>
-      </c>
-      <c r="C222" t="b">
-        <v>0</v>
-      </c>
-      <c r="D222" t="s">
-        <v>637</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>16</v>
@@ -16923,7 +16989,7 @@
         <v>0</v>
       </c>
       <c r="P222" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="Q222">
         <v>0</v>
@@ -16932,28 +16998,28 @@
         <v>0</v>
       </c>
       <c r="S222" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T222">
         <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="U222" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U222" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21">
       <c r="A223">
         <v>232</v>
       </c>
       <c r="B223" t="s">
+        <v>637</v>
+      </c>
+      <c r="C223" t="b">
+        <v>0</v>
+      </c>
+      <c r="D223" t="s">
         <v>638</v>
-      </c>
-      <c r="C223" t="b">
-        <v>0</v>
-      </c>
-      <c r="D223" t="s">
-        <v>639</v>
       </c>
       <c r="F223" s="1" t="s">
         <v>16</v>
@@ -16983,7 +17049,7 @@
         <v>0</v>
       </c>
       <c r="P223" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="Q223">
         <v>0</v>
@@ -16992,34 +17058,34 @@
         <v>0</v>
       </c>
       <c r="S223" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T223">
         <f t="shared" si="5"/>
         <v>221</v>
       </c>
-      <c r="U223" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U223" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21">
       <c r="A224">
         <v>233</v>
       </c>
       <c r="B224" t="s">
+        <v>639</v>
+      </c>
+      <c r="C224" t="b">
+        <v>0</v>
+      </c>
+      <c r="D224" t="s">
         <v>640</v>
       </c>
-      <c r="C224" t="b">
-        <v>0</v>
-      </c>
-      <c r="D224" t="s">
-        <v>641</v>
-      </c>
       <c r="F224" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G224" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="G224" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H224" t="s">
         <v>124</v>
@@ -17043,7 +17109,7 @@
         <v>0</v>
       </c>
       <c r="P224" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="Q224">
         <v>1</v>
@@ -17058,22 +17124,22 @@
         <f t="shared" si="5"/>
         <v>222</v>
       </c>
-      <c r="U224" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U224" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21">
       <c r="A225">
         <v>234</v>
       </c>
       <c r="B225" t="s">
+        <v>645</v>
+      </c>
+      <c r="C225" t="b">
+        <v>0</v>
+      </c>
+      <c r="D225" t="s">
         <v>646</v>
-      </c>
-      <c r="C225" t="b">
-        <v>0</v>
-      </c>
-      <c r="D225" t="s">
-        <v>647</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>16</v>
@@ -17103,7 +17169,7 @@
         <v>0</v>
       </c>
       <c r="P225" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="Q225">
         <v>0</v>
@@ -17118,22 +17184,22 @@
         <f t="shared" si="5"/>
         <v>223</v>
       </c>
-      <c r="U225" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U225" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21">
       <c r="A226">
         <v>235</v>
       </c>
       <c r="B226" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C226" t="b">
         <v>0</v>
       </c>
       <c r="D226" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>16</v>
@@ -17163,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="P226" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="Q226">
         <v>0</v>
@@ -17178,28 +17244,28 @@
         <f t="shared" si="5"/>
         <v>224</v>
       </c>
-      <c r="U226" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U226" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21">
       <c r="A227">
         <v>236</v>
       </c>
       <c r="B227" t="s">
+        <v>651</v>
+      </c>
+      <c r="C227" t="b">
+        <v>0</v>
+      </c>
+      <c r="D227" t="s">
         <v>652</v>
       </c>
-      <c r="C227" t="b">
-        <v>0</v>
-      </c>
-      <c r="D227" t="s">
-        <v>653</v>
-      </c>
       <c r="F227" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G227" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="G227" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="H227" t="s">
         <v>124</v>
@@ -17223,7 +17289,7 @@
         <v>0</v>
       </c>
       <c r="P227" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="Q227">
         <v>1</v>
@@ -17238,22 +17304,22 @@
         <f t="shared" si="5"/>
         <v>225</v>
       </c>
-      <c r="U227" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U227" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21">
       <c r="A228">
         <v>237</v>
       </c>
       <c r="B228" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C228" t="b">
         <v>0</v>
       </c>
       <c r="D228" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>16</v>
@@ -17283,7 +17349,7 @@
         <v>0</v>
       </c>
       <c r="P228" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="Q228">
         <v>0</v>
@@ -17292,28 +17358,28 @@
         <v>0</v>
       </c>
       <c r="S228" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T228">
         <f t="shared" si="5"/>
         <v>226</v>
       </c>
-      <c r="U228" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U228" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21">
       <c r="A229">
         <v>238</v>
       </c>
       <c r="B229" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C229" t="b">
         <v>0</v>
       </c>
       <c r="D229" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>16</v>
@@ -17343,7 +17409,7 @@
         <v>0</v>
       </c>
       <c r="P229" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="Q229">
         <v>0</v>
@@ -17352,31 +17418,31 @@
         <v>0</v>
       </c>
       <c r="S229" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T229">
         <f t="shared" si="5"/>
         <v>227</v>
       </c>
-      <c r="U229" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U229" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21">
       <c r="A230">
         <v>239</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C230" t="b">
         <v>0</v>
       </c>
       <c r="D230" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G230" t="s">
         <v>585</v>
@@ -17403,7 +17469,7 @@
         <v>0</v>
       </c>
       <c r="P230" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="Q230">
         <v>0</v>
@@ -17418,28 +17484,28 @@
         <f t="shared" si="5"/>
         <v>228</v>
       </c>
-      <c r="U230" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U230" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21">
       <c r="A231">
         <v>240</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C231" t="b">
         <v>0</v>
       </c>
       <c r="D231" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G231" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="H231" t="s">
         <v>75</v>
@@ -17463,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="P231" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="Q231">
         <v>0</v>
@@ -17478,25 +17544,25 @@
         <f t="shared" si="5"/>
         <v>229</v>
       </c>
-      <c r="U231" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="232" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U231" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" s="3" customFormat="1">
       <c r="A232">
         <v>242</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C232" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D232" s="3" t="s">
-        <v>663</v>
+        <v>706</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="G232" s="3" t="s">
         <v>601</v>
@@ -17507,8 +17573,8 @@
       <c r="I232" s="3">
         <v>50000</v>
       </c>
-      <c r="J232" s="15" t="s">
-        <v>668</v>
+      <c r="J232" s="14" t="s">
+        <v>697</v>
       </c>
       <c r="K232" s="3">
         <v>4</v>
@@ -17523,7 +17589,7 @@
         <v>0</v>
       </c>
       <c r="P232" s="3" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="Q232" s="3">
         <v>5</v>
@@ -17538,22 +17604,22 @@
         <f t="shared" si="5"/>
         <v>230</v>
       </c>
-      <c r="U232" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U232" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21">
       <c r="A233">
         <v>243</v>
       </c>
       <c r="B233" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="C233" t="b">
         <v>0</v>
       </c>
       <c r="D233" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>16</v>
@@ -17583,7 +17649,7 @@
         <v>0</v>
       </c>
       <c r="P233" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="Q233">
         <v>0</v>
@@ -17598,22 +17664,22 @@
         <f t="shared" si="5"/>
         <v>231</v>
       </c>
-      <c r="U233" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U233" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21">
       <c r="A234">
         <v>244</v>
       </c>
       <c r="B234" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="C234" t="b">
         <v>0</v>
       </c>
       <c r="D234" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F234" s="1" t="s">
         <v>16</v>
@@ -17643,7 +17709,7 @@
         <v>0</v>
       </c>
       <c r="P234" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="Q234">
         <v>0</v>
@@ -17658,22 +17724,22 @@
         <f t="shared" si="5"/>
         <v>232</v>
       </c>
-      <c r="U234" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U234" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21">
       <c r="A235">
         <v>245</v>
       </c>
       <c r="B235" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="C235" t="b">
         <v>0</v>
       </c>
       <c r="D235" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F235" s="1" t="s">
         <v>16</v>
@@ -17703,7 +17769,7 @@
         <v>0</v>
       </c>
       <c r="P235" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="Q235">
         <v>0</v>
@@ -17712,28 +17778,28 @@
         <v>0</v>
       </c>
       <c r="S235" s="13" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="T235">
         <f t="shared" si="5"/>
         <v>233</v>
       </c>
-      <c r="U235" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U235" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21">
       <c r="A236">
         <v>246</v>
       </c>
       <c r="B236" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="C236" t="b">
         <v>0</v>
       </c>
       <c r="D236" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F236" s="1" t="s">
         <v>16</v>
@@ -17763,7 +17829,7 @@
         <v>0</v>
       </c>
       <c r="P236" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="Q236">
         <v>0</v>
@@ -17778,28 +17844,28 @@
         <f t="shared" si="5"/>
         <v>234</v>
       </c>
-      <c r="U236" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="237" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="U236" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" s="3" customFormat="1">
       <c r="A237">
         <v>248</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C237" s="3" t="b">
         <v>0</v>
       </c>
       <c r="D237" s="3" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="H237" s="3" t="s">
         <v>124</v>
@@ -17808,7 +17874,7 @@
         <v>50000</v>
       </c>
       <c r="J237" s="14" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="K237" s="3">
         <v>4</v>
@@ -17823,7 +17889,7 @@
         <v>0</v>
       </c>
       <c r="P237" s="3" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="Q237" s="3">
         <v>5</v>
@@ -17838,28 +17904,28 @@
         <f t="shared" si="5"/>
         <v>235</v>
       </c>
-      <c r="U237" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U237" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21">
       <c r="A238">
         <v>249</v>
       </c>
       <c r="B238" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C238" t="b">
         <v>0</v>
       </c>
       <c r="D238" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G238" s="7" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H238" t="s">
         <v>124</v>
@@ -17883,7 +17949,7 @@
         <v>0</v>
       </c>
       <c r="P238" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="Q238">
         <v>1</v>
@@ -17898,22 +17964,22 @@
         <f t="shared" si="5"/>
         <v>236</v>
       </c>
-      <c r="U238" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U238" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21">
       <c r="A239">
         <v>250</v>
       </c>
       <c r="B239" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C239" t="b">
         <v>0</v>
       </c>
       <c r="D239" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F239" s="1" t="s">
         <v>16</v>
@@ -17943,7 +18009,7 @@
         <v>0</v>
       </c>
       <c r="P239" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="Q239">
         <v>0</v>
@@ -17952,28 +18018,28 @@
         <v>0</v>
       </c>
       <c r="S239" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T239">
         <f t="shared" si="5"/>
         <v>237</v>
       </c>
-      <c r="U239" s="16" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="U239" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21">
       <c r="A240">
         <v>251</v>
       </c>
       <c r="B240" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C240" t="b">
         <v>0</v>
       </c>
       <c r="D240" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="F240" s="1" t="s">
         <v>16</v>
@@ -18003,7 +18069,7 @@
         <v>0</v>
       </c>
       <c r="P240" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="Q240">
         <v>0</v>
@@ -18012,14 +18078,494 @@
         <v>0</v>
       </c>
       <c r="S240" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="T240">
         <f t="shared" si="5"/>
         <v>238</v>
       </c>
-      <c r="U240" s="16" t="s">
-        <v>686</v>
+      <c r="U240" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21">
+      <c r="A241">
+        <v>252</v>
+      </c>
+      <c r="B241" t="s">
+        <v>693</v>
+      </c>
+      <c r="C241" t="b">
+        <v>0</v>
+      </c>
+      <c r="D241" t="s">
+        <v>621</v>
+      </c>
+      <c r="F241" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G241" t="s">
+        <v>16</v>
+      </c>
+      <c r="H241" t="s">
+        <v>31</v>
+      </c>
+      <c r="I241">
+        <v>30000</v>
+      </c>
+      <c r="J241" t="s">
+        <v>46</v>
+      </c>
+      <c r="K241">
+        <v>5</v>
+      </c>
+      <c r="M241" t="b">
+        <v>0</v>
+      </c>
+      <c r="N241" t="s">
+        <v>43</v>
+      </c>
+      <c r="O241">
+        <v>0</v>
+      </c>
+      <c r="P241" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q241">
+        <v>0</v>
+      </c>
+      <c r="R241">
+        <v>0</v>
+      </c>
+      <c r="S241" t="s">
+        <v>148</v>
+      </c>
+      <c r="T241">
+        <f t="shared" si="5"/>
+        <v>239</v>
+      </c>
+      <c r="U241" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21">
+      <c r="A242">
+        <v>253</v>
+      </c>
+      <c r="B242" t="s">
+        <v>694</v>
+      </c>
+      <c r="C242" t="b">
+        <v>0</v>
+      </c>
+      <c r="D242" t="s">
+        <v>695</v>
+      </c>
+      <c r="F242" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G242" t="s">
+        <v>16</v>
+      </c>
+      <c r="H242" t="s">
+        <v>31</v>
+      </c>
+      <c r="I242">
+        <v>50000</v>
+      </c>
+      <c r="J242" t="s">
+        <v>46</v>
+      </c>
+      <c r="K242">
+        <v>5</v>
+      </c>
+      <c r="M242" t="b">
+        <v>0</v>
+      </c>
+      <c r="N242" t="s">
+        <v>43</v>
+      </c>
+      <c r="O242">
+        <v>0</v>
+      </c>
+      <c r="P242" t="s">
+        <v>694</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>0</v>
+      </c>
+      <c r="S242" t="s">
+        <v>148</v>
+      </c>
+      <c r="T242">
+        <f t="shared" si="5"/>
+        <v>240</v>
+      </c>
+      <c r="U242" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" s="3" customFormat="1">
+      <c r="A243">
+        <v>254</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C243" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D243" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F243" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I243" s="3">
+        <v>30000</v>
+      </c>
+      <c r="J243" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="K243" s="3">
+        <v>3</v>
+      </c>
+      <c r="M243" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N243" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O243" s="3">
+        <v>0</v>
+      </c>
+      <c r="P243" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="Q243" s="3">
+        <v>5</v>
+      </c>
+      <c r="R243" s="3">
+        <v>0</v>
+      </c>
+      <c r="S243" t="s">
+        <v>148</v>
+      </c>
+      <c r="T243">
+        <f t="shared" si="5"/>
+        <v>241</v>
+      </c>
+      <c r="U243" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21">
+      <c r="A244">
+        <v>255</v>
+      </c>
+      <c r="B244" t="s">
+        <v>698</v>
+      </c>
+      <c r="C244" t="b">
+        <v>0</v>
+      </c>
+      <c r="D244" t="s">
+        <v>700</v>
+      </c>
+      <c r="F244" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G244" t="s">
+        <v>16</v>
+      </c>
+      <c r="H244" t="s">
+        <v>31</v>
+      </c>
+      <c r="I244">
+        <v>30000</v>
+      </c>
+      <c r="J244" t="s">
+        <v>46</v>
+      </c>
+      <c r="K244">
+        <v>5</v>
+      </c>
+      <c r="M244" t="b">
+        <v>0</v>
+      </c>
+      <c r="N244" t="s">
+        <v>43</v>
+      </c>
+      <c r="O244">
+        <v>0</v>
+      </c>
+      <c r="P244" t="s">
+        <v>698</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>0</v>
+      </c>
+      <c r="S244" s="13" t="s">
+        <v>625</v>
+      </c>
+      <c r="T244">
+        <f t="shared" si="5"/>
+        <v>242</v>
+      </c>
+      <c r="U244" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21">
+      <c r="A245">
+        <v>256</v>
+      </c>
+      <c r="B245" t="s">
+        <v>699</v>
+      </c>
+      <c r="C245" t="b">
+        <v>0</v>
+      </c>
+      <c r="D245" t="s">
+        <v>700</v>
+      </c>
+      <c r="F245" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G245" t="s">
+        <v>16</v>
+      </c>
+      <c r="H245" t="s">
+        <v>31</v>
+      </c>
+      <c r="I245">
+        <v>10000</v>
+      </c>
+      <c r="J245" t="s">
+        <v>46</v>
+      </c>
+      <c r="K245">
+        <v>5</v>
+      </c>
+      <c r="M245" t="b">
+        <v>0</v>
+      </c>
+      <c r="N245" t="s">
+        <v>43</v>
+      </c>
+      <c r="O245">
+        <v>0</v>
+      </c>
+      <c r="P245" t="s">
+        <v>699</v>
+      </c>
+      <c r="Q245">
+        <v>0</v>
+      </c>
+      <c r="R245">
+        <v>0</v>
+      </c>
+      <c r="S245" t="s">
+        <v>148</v>
+      </c>
+      <c r="T245">
+        <f t="shared" si="5"/>
+        <v>243</v>
+      </c>
+      <c r="U245" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21">
+      <c r="A246">
+        <v>257</v>
+      </c>
+      <c r="B246" t="s">
+        <v>701</v>
+      </c>
+      <c r="C246" t="b">
+        <v>0</v>
+      </c>
+      <c r="D246" t="s">
+        <v>703</v>
+      </c>
+      <c r="F246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G246" t="s">
+        <v>16</v>
+      </c>
+      <c r="H246" t="s">
+        <v>31</v>
+      </c>
+      <c r="I246">
+        <v>10000</v>
+      </c>
+      <c r="J246" t="s">
+        <v>46</v>
+      </c>
+      <c r="K246">
+        <v>5</v>
+      </c>
+      <c r="M246" t="b">
+        <v>0</v>
+      </c>
+      <c r="N246" t="s">
+        <v>43</v>
+      </c>
+      <c r="O246">
+        <v>0</v>
+      </c>
+      <c r="P246" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>0</v>
+      </c>
+      <c r="S246" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="T246">
+        <f t="shared" si="5"/>
+        <v>244</v>
+      </c>
+      <c r="U246" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21">
+      <c r="A247">
+        <v>258</v>
+      </c>
+      <c r="B247" t="s">
+        <v>702</v>
+      </c>
+      <c r="C247" t="b">
+        <v>0</v>
+      </c>
+      <c r="D247" t="s">
+        <v>704</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G247" t="s">
+        <v>16</v>
+      </c>
+      <c r="H247" t="s">
+        <v>31</v>
+      </c>
+      <c r="I247">
+        <v>10000</v>
+      </c>
+      <c r="J247" t="s">
+        <v>46</v>
+      </c>
+      <c r="K247">
+        <v>5</v>
+      </c>
+      <c r="M247" t="b">
+        <v>0</v>
+      </c>
+      <c r="N247" t="s">
+        <v>43</v>
+      </c>
+      <c r="O247">
+        <v>0</v>
+      </c>
+      <c r="P247" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>0</v>
+      </c>
+      <c r="S247" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="T247">
+        <f t="shared" si="5"/>
+        <v>245</v>
+      </c>
+      <c r="U247" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" s="3" customFormat="1">
+      <c r="A248">
+        <v>259</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="C248" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D248" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="F248" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I248" s="3">
+        <v>50000</v>
+      </c>
+      <c r="J248" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="K248" s="3">
+        <v>4</v>
+      </c>
+      <c r="M248" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="N248" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="O248" s="3">
+        <v>0</v>
+      </c>
+      <c r="P248" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="Q248" s="3">
+        <v>5</v>
+      </c>
+      <c r="R248" s="3">
+        <v>0</v>
+      </c>
+      <c r="S248" t="s">
+        <v>148</v>
+      </c>
+      <c r="T248">
+        <f t="shared" si="5"/>
+        <v>246</v>
+      </c>
+      <c r="U248" s="15" t="s">
+        <v>681</v>
       </c>
     </row>
   </sheetData>
@@ -18039,7 +18585,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/06.Table/InAppPurchase.xlsx
+++ b/Assets/06.Table/InAppPurchase.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN_NEW\SVN_NEWNEW\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FF574E-6820-4808-AC3D-08EDD5B700BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F61568A-88F3-4B35-8604-3A7BA5626429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-3300" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="InAppPurchase" sheetId="1" r:id="rId1"/>
@@ -249,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2514" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="727">
   <si>
     <t>id</t>
   </si>
@@ -3036,12 +3036,64 @@
     <t>월간 소탕권 세트2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>hotseasonpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혹서기 훈련 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영혼의 숲 패스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sfpass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelup37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지   18000달성 보상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>levelpass57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(56단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨패스(57단계)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dosulpension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도술 연금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9033,9033</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3551,14 +3603,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:U248"/>
+  <dimension ref="A1:U254"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A229" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D249" sqref="D249"/>
+      <pane ySplit="1" topLeftCell="A226" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="24.25" bestFit="1" customWidth="1"/>
@@ -3577,7 +3629,7 @@
     <col min="21" max="21" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3642,7 +3694,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>247</v>
       </c>
@@ -3701,7 +3753,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>241</v>
       </c>
@@ -3760,7 +3812,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>235</v>
       </c>
@@ -3820,7 +3872,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>234</v>
       </c>
@@ -3880,7 +3932,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>226</v>
       </c>
@@ -3942,7 +3994,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1">
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>218</v>
       </c>
@@ -4002,7 +4054,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>214</v>
       </c>
@@ -4062,7 +4114,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>210</v>
       </c>
@@ -4122,7 +4174,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="3" customFormat="1">
+    <row r="10" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>205</v>
       </c>
@@ -4182,7 +4234,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4245,7 +4297,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>101</v>
       </c>
@@ -4305,7 +4357,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>102</v>
       </c>
@@ -4365,7 +4417,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>103</v>
       </c>
@@ -4425,7 +4477,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8</v>
       </c>
@@ -4488,7 +4540,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
@@ -4551,7 +4603,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4617,7 +4669,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>11</v>
       </c>
@@ -4683,7 +4735,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="19" spans="1:21" s="3" customFormat="1">
+    <row r="19" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>12</v>
       </c>
@@ -4746,7 +4798,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="3" customFormat="1">
+    <row r="20" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>13</v>
       </c>
@@ -4809,7 +4861,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="3" customFormat="1">
+    <row r="21" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -4872,7 +4924,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>14</v>
       </c>
@@ -4935,7 +4987,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="8" customFormat="1">
+    <row r="23" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>15</v>
       </c>
@@ -4998,7 +5050,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="8" customFormat="1">
+    <row r="24" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>16</v>
       </c>
@@ -5061,7 +5113,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="8" customFormat="1">
+    <row r="25" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>17</v>
       </c>
@@ -5124,7 +5176,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="8" customFormat="1">
+    <row r="26" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>18</v>
       </c>
@@ -5184,7 +5236,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="8" customFormat="1">
+    <row r="27" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>19</v>
       </c>
@@ -5244,7 +5296,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>20</v>
       </c>
@@ -5304,7 +5356,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>21</v>
       </c>
@@ -5364,7 +5416,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>22</v>
       </c>
@@ -5424,7 +5476,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="31" spans="1:21" s="3" customFormat="1">
+    <row r="31" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>23</v>
       </c>
@@ -5484,7 +5536,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="3" customFormat="1">
+    <row r="32" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>24</v>
       </c>
@@ -5544,7 +5596,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="3" customFormat="1">
+    <row r="33" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>25</v>
       </c>
@@ -5604,7 +5656,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="3" customFormat="1">
+    <row r="34" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>27</v>
       </c>
@@ -5667,7 +5719,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="3" customFormat="1">
+    <row r="35" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>28</v>
       </c>
@@ -5730,7 +5782,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>29</v>
       </c>
@@ -5790,7 +5842,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="37" spans="1:21" s="3" customFormat="1">
+    <row r="37" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>30</v>
       </c>
@@ -5853,7 +5905,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="38" spans="1:21" s="3" customFormat="1">
+    <row r="38" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>31</v>
       </c>
@@ -5916,7 +5968,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>32</v>
       </c>
@@ -5979,7 +6031,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>33</v>
       </c>
@@ -6042,7 +6094,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>34</v>
       </c>
@@ -6105,7 +6157,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="3" customFormat="1">
+    <row r="42" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>35</v>
       </c>
@@ -6165,7 +6217,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="43" spans="1:21" s="3" customFormat="1">
+    <row r="43" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>36</v>
       </c>
@@ -6225,7 +6277,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="3" customFormat="1">
+    <row r="44" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>37</v>
       </c>
@@ -6285,7 +6337,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="45" spans="1:21" s="3" customFormat="1">
+    <row r="45" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>38</v>
       </c>
@@ -6345,7 +6397,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>39</v>
       </c>
@@ -6405,7 +6457,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>41</v>
       </c>
@@ -6465,7 +6517,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>42</v>
       </c>
@@ -6525,7 +6577,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="8" customFormat="1">
+    <row r="49" spans="1:21" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>44</v>
       </c>
@@ -6585,7 +6637,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="50" spans="1:21" s="3" customFormat="1">
+    <row r="50" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>45</v>
       </c>
@@ -6645,7 +6697,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="51" spans="1:21" s="3" customFormat="1">
+    <row r="51" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>46</v>
       </c>
@@ -6705,7 +6757,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="52" spans="1:21" s="3" customFormat="1">
+    <row r="52" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>47</v>
       </c>
@@ -6765,7 +6817,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>48</v>
       </c>
@@ -6825,7 +6877,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>49</v>
       </c>
@@ -6885,7 +6937,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="55" spans="1:21">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>51</v>
       </c>
@@ -6945,7 +6997,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="56" spans="1:21">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>52</v>
       </c>
@@ -7005,7 +7057,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="57" spans="1:21">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>53</v>
       </c>
@@ -7065,7 +7117,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="58" spans="1:21">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>55</v>
       </c>
@@ -7125,7 +7177,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="59" spans="1:21">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>56</v>
       </c>
@@ -7185,7 +7237,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>58</v>
       </c>
@@ -7245,7 +7297,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>59</v>
       </c>
@@ -7305,7 +7357,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="62" spans="1:21">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>60</v>
       </c>
@@ -7365,7 +7417,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="63" spans="1:21">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>61</v>
       </c>
@@ -7425,7 +7477,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="64" spans="1:21">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>62</v>
       </c>
@@ -7485,7 +7537,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="65" spans="1:21">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>63</v>
       </c>
@@ -7545,7 +7597,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>67</v>
       </c>
@@ -7605,7 +7657,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>68</v>
       </c>
@@ -7665,7 +7717,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="68" spans="1:21">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>69</v>
       </c>
@@ -7725,7 +7777,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="69" spans="1:21">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>70</v>
       </c>
@@ -7785,7 +7837,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="70" spans="1:21">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>71</v>
       </c>
@@ -7845,7 +7897,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>72</v>
       </c>
@@ -7905,7 +7957,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>73</v>
       </c>
@@ -7965,7 +8017,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>74</v>
       </c>
@@ -8025,7 +8077,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>75</v>
       </c>
@@ -8085,7 +8137,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="75" spans="1:21">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>76</v>
       </c>
@@ -8145,7 +8197,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>77</v>
       </c>
@@ -8205,7 +8257,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>78</v>
       </c>
@@ -8265,7 +8317,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>79</v>
       </c>
@@ -8325,7 +8377,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>80</v>
       </c>
@@ -8385,7 +8437,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="80" spans="1:21">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>81</v>
       </c>
@@ -8445,7 +8497,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="81" spans="1:21">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>82</v>
       </c>
@@ -8505,7 +8557,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="82" spans="1:21">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>83</v>
       </c>
@@ -8565,7 +8617,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="83" spans="1:21">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>84</v>
       </c>
@@ -8625,7 +8677,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="84" spans="1:21">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>85</v>
       </c>
@@ -8685,7 +8737,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="85" spans="1:21">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>88</v>
       </c>
@@ -8745,7 +8797,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="86" spans="1:21">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>89</v>
       </c>
@@ -8805,7 +8857,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="87" spans="1:21">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>90</v>
       </c>
@@ -8865,7 +8917,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="88" spans="1:21">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>91</v>
       </c>
@@ -8925,7 +8977,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="89" spans="1:21">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>94</v>
       </c>
@@ -8985,7 +9037,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="90" spans="1:21">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>95</v>
       </c>
@@ -9045,7 +9097,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="91" spans="1:21">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>96</v>
       </c>
@@ -9105,7 +9157,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="92" spans="1:21">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>97</v>
       </c>
@@ -9165,7 +9217,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="93" spans="1:21">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>98</v>
       </c>
@@ -9225,7 +9277,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="94" spans="1:21">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>99</v>
       </c>
@@ -9285,7 +9337,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="95" spans="1:21">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>100</v>
       </c>
@@ -9345,7 +9397,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="96" spans="1:21">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>5</v>
       </c>
@@ -9408,7 +9460,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="97" spans="1:21">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>6</v>
       </c>
@@ -9471,7 +9523,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="98" spans="1:21">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>7</v>
       </c>
@@ -9534,7 +9586,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="99" spans="1:21">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>101</v>
       </c>
@@ -9594,7 +9646,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="100" spans="1:21">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>104</v>
       </c>
@@ -9654,7 +9706,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="101" spans="1:21">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>105</v>
       </c>
@@ -9714,7 +9766,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="102" spans="1:21">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>106</v>
       </c>
@@ -9774,7 +9826,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="103" spans="1:21">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>107</v>
       </c>
@@ -9834,7 +9886,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="104" spans="1:21">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>108</v>
       </c>
@@ -9894,7 +9946,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="105" spans="1:21">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>109</v>
       </c>
@@ -9954,7 +10006,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="106" spans="1:21">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>110</v>
       </c>
@@ -10014,7 +10066,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="107" spans="1:21">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>113</v>
       </c>
@@ -10074,7 +10126,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="108" spans="1:21">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>114</v>
       </c>
@@ -10134,7 +10186,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="109" spans="1:21">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>115</v>
       </c>
@@ -10194,7 +10246,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="110" spans="1:21">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>116</v>
       </c>
@@ -10254,7 +10306,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="111" spans="1:21">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>117</v>
       </c>
@@ -10314,7 +10366,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="112" spans="1:21">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>118</v>
       </c>
@@ -10374,7 +10426,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="113" spans="1:21">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>119</v>
       </c>
@@ -10434,7 +10486,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="114" spans="1:21">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>120</v>
       </c>
@@ -10494,7 +10546,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="115" spans="1:21">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>123</v>
       </c>
@@ -10554,7 +10606,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="116" spans="1:21">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>125</v>
       </c>
@@ -10614,7 +10666,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="117" spans="1:21" ht="15.75" customHeight="1">
+    <row r="117" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>126</v>
       </c>
@@ -10674,7 +10726,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="118" spans="1:21">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>127</v>
       </c>
@@ -10734,7 +10786,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="119" spans="1:21" s="3" customFormat="1">
+    <row r="119" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>128</v>
       </c>
@@ -10797,7 +10849,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="120" spans="1:21" s="3" customFormat="1">
+    <row r="120" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>129</v>
       </c>
@@ -10860,7 +10912,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="121" spans="1:21" s="3" customFormat="1">
+    <row r="121" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>130</v>
       </c>
@@ -10923,7 +10975,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="122" spans="1:21" s="3" customFormat="1">
+    <row r="122" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>131</v>
       </c>
@@ -10986,7 +11038,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="123" spans="1:21" s="3" customFormat="1">
+    <row r="123" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>132</v>
       </c>
@@ -11049,7 +11101,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="124" spans="1:21">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>133</v>
       </c>
@@ -11109,7 +11161,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="125" spans="1:21">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>134</v>
       </c>
@@ -11169,7 +11221,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="126" spans="1:21">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>137</v>
       </c>
@@ -11229,7 +11281,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="127" spans="1:21">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>138</v>
       </c>
@@ -11289,7 +11341,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="128" spans="1:21" s="3" customFormat="1">
+    <row r="128" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>141</v>
       </c>
@@ -11352,7 +11404,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="129" spans="1:21">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>142</v>
       </c>
@@ -11412,7 +11464,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="130" spans="1:21">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>143</v>
       </c>
@@ -11472,7 +11524,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="131" spans="1:21" s="2" customFormat="1">
+    <row r="131" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>182</v>
       </c>
@@ -11532,7 +11584,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="132" spans="1:21">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>199</v>
       </c>
@@ -11594,7 +11646,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="133" spans="1:21">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>200</v>
       </c>
@@ -11656,7 +11708,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="134" spans="1:21" s="2" customFormat="1">
+    <row r="134" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>183</v>
       </c>
@@ -11716,7 +11768,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="135" spans="1:21" s="2" customFormat="1">
+    <row r="135" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>184</v>
       </c>
@@ -11776,7 +11828,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="136" spans="1:21" s="2" customFormat="1">
+    <row r="136" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>185</v>
       </c>
@@ -11836,7 +11888,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="137" spans="1:21" s="2" customFormat="1">
+    <row r="137" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>186</v>
       </c>
@@ -11896,7 +11948,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="138" spans="1:21" ht="22.5" customHeight="1">
+    <row r="138" spans="1:21" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>181</v>
       </c>
@@ -11956,7 +12008,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="139" spans="1:21">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>182</v>
       </c>
@@ -12016,7 +12068,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="140" spans="1:21" s="3" customFormat="1">
+    <row r="140" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>172</v>
       </c>
@@ -12076,7 +12128,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="141" spans="1:21" s="3" customFormat="1">
+    <row r="141" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>173</v>
       </c>
@@ -12136,7 +12188,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="142" spans="1:21" ht="19.5" customHeight="1">
+    <row r="142" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>160</v>
       </c>
@@ -12198,7 +12250,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="143" spans="1:21">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>161</v>
       </c>
@@ -12260,7 +12312,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="144" spans="1:21">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -12320,7 +12372,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="145" spans="1:21">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -12380,7 +12432,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="146" spans="1:21">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -12440,7 +12492,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="147" spans="1:21">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -12500,7 +12552,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="148" spans="1:21">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -12560,7 +12612,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="149" spans="1:21">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -12620,7 +12672,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="150" spans="1:21">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -12680,7 +12732,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="151" spans="1:21">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>153</v>
       </c>
@@ -12740,7 +12792,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="152" spans="1:21">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>154</v>
       </c>
@@ -12800,7 +12852,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="153" spans="1:21">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>155</v>
       </c>
@@ -12860,7 +12912,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="154" spans="1:21">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>156</v>
       </c>
@@ -12920,7 +12972,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="155" spans="1:21">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>157</v>
       </c>
@@ -12980,7 +13032,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="156" spans="1:21">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>158</v>
       </c>
@@ -13040,7 +13092,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="157" spans="1:21">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>159</v>
       </c>
@@ -13100,7 +13152,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="158" spans="1:21" s="3" customFormat="1">
+    <row r="158" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>162</v>
       </c>
@@ -13162,7 +13214,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="159" spans="1:21" s="3" customFormat="1">
+    <row r="159" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>163</v>
       </c>
@@ -13224,7 +13276,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="160" spans="1:21" s="3" customFormat="1">
+    <row r="160" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>164</v>
       </c>
@@ -13284,7 +13336,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="161" spans="1:21">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>165</v>
       </c>
@@ -13346,7 +13398,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="162" spans="1:21">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>166</v>
       </c>
@@ -13408,7 +13460,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="163" spans="1:21">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>167</v>
       </c>
@@ -13468,7 +13520,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="164" spans="1:21">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>168</v>
       </c>
@@ -13528,7 +13580,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="165" spans="1:21">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>169</v>
       </c>
@@ -13588,7 +13640,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="166" spans="1:21">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>170</v>
       </c>
@@ -13648,7 +13700,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="167" spans="1:21">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>171</v>
       </c>
@@ -13708,7 +13760,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="168" spans="1:21">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>172</v>
       </c>
@@ -13768,7 +13820,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="169" spans="1:21">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>173</v>
       </c>
@@ -13828,7 +13880,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="170" spans="1:21">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>174</v>
       </c>
@@ -13888,7 +13940,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="171" spans="1:21">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>175</v>
       </c>
@@ -13948,7 +14000,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="172" spans="1:21">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>176</v>
       </c>
@@ -14008,7 +14060,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="173" spans="1:21">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>177</v>
       </c>
@@ -14068,7 +14120,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="174" spans="1:21">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>178</v>
       </c>
@@ -14128,7 +14180,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="175" spans="1:21">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>179</v>
       </c>
@@ -14188,7 +14240,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="176" spans="1:21">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>180</v>
       </c>
@@ -14248,7 +14300,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="177" spans="1:21">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>181</v>
       </c>
@@ -14308,7 +14360,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="178" spans="1:21">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>139</v>
       </c>
@@ -14368,7 +14420,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="179" spans="1:21">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>140</v>
       </c>
@@ -14428,7 +14480,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="180" spans="1:21">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>187</v>
       </c>
@@ -14488,7 +14540,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="181" spans="1:21">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>188</v>
       </c>
@@ -14548,7 +14600,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="182" spans="1:21">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>189</v>
       </c>
@@ -14608,7 +14660,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="183" spans="1:21">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>190</v>
       </c>
@@ -14668,7 +14720,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="184" spans="1:21">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>191</v>
       </c>
@@ -14728,7 +14780,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="185" spans="1:21">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>192</v>
       </c>
@@ -14788,7 +14840,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="186" spans="1:21">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>193</v>
       </c>
@@ -14848,7 +14900,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="187" spans="1:21">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>194</v>
       </c>
@@ -14908,7 +14960,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="188" spans="1:21">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>195</v>
       </c>
@@ -14968,7 +15020,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="189" spans="1:21">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>196</v>
       </c>
@@ -15028,7 +15080,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="190" spans="1:21">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>197</v>
       </c>
@@ -15088,7 +15140,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="191" spans="1:21">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>198</v>
       </c>
@@ -15148,7 +15200,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="192" spans="1:21">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>199</v>
       </c>
@@ -15208,7 +15260,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="193" spans="1:21">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>201</v>
       </c>
@@ -15268,7 +15320,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="194" spans="1:21">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>202</v>
       </c>
@@ -15328,7 +15380,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="195" spans="1:21">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>203</v>
       </c>
@@ -15388,7 +15440,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="196" spans="1:21">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>204</v>
       </c>
@@ -15448,7 +15500,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="197" spans="1:21">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>205</v>
       </c>
@@ -15508,7 +15560,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="198" spans="1:21">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>206</v>
       </c>
@@ -15568,7 +15620,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="199" spans="1:21">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>207</v>
       </c>
@@ -15621,14 +15673,14 @@
         <v>627</v>
       </c>
       <c r="T199">
-        <f t="shared" ref="T199:T248" si="5">ROW()-2</f>
+        <f t="shared" ref="T199:T254" si="5">ROW()-2</f>
         <v>197</v>
       </c>
       <c r="U199" s="15" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="200" spans="1:21">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>208</v>
       </c>
@@ -15688,7 +15740,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="201" spans="1:21">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>209</v>
       </c>
@@ -15748,7 +15800,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="202" spans="1:21">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>210</v>
       </c>
@@ -15808,7 +15860,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="203" spans="1:21">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>211</v>
       </c>
@@ -15868,7 +15920,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="204" spans="1:21">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>212</v>
       </c>
@@ -15928,7 +15980,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="205" spans="1:21">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>213</v>
       </c>
@@ -15988,7 +16040,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="206" spans="1:21">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>215</v>
       </c>
@@ -16048,7 +16100,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="207" spans="1:21">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>216</v>
       </c>
@@ -16108,7 +16160,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="208" spans="1:21">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>217</v>
       </c>
@@ -16168,7 +16220,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="209" spans="1:21" s="3" customFormat="1">
+    <row r="209" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>124</v>
       </c>
@@ -16228,7 +16280,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="210" spans="1:21" s="3" customFormat="1">
+    <row r="210" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>219</v>
       </c>
@@ -16288,7 +16340,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="211" spans="1:21">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>220</v>
       </c>
@@ -16348,7 +16400,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="212" spans="1:21">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>221</v>
       </c>
@@ -16408,7 +16460,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="213" spans="1:21">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>222</v>
       </c>
@@ -16468,7 +16520,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="214" spans="1:21">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>223</v>
       </c>
@@ -16528,7 +16580,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="215" spans="1:21">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>224</v>
       </c>
@@ -16588,7 +16640,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="216" spans="1:21">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>225</v>
       </c>
@@ -16648,7 +16700,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="217" spans="1:21">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>226</v>
       </c>
@@ -16708,7 +16760,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="218" spans="1:21">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>227</v>
       </c>
@@ -16768,7 +16820,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="219" spans="1:21">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>228</v>
       </c>
@@ -16828,7 +16880,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="220" spans="1:21">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>229</v>
       </c>
@@ -16888,7 +16940,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="221" spans="1:21">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>230</v>
       </c>
@@ -16948,7 +17000,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="222" spans="1:21">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>231</v>
       </c>
@@ -17008,7 +17060,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="223" spans="1:21">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>232</v>
       </c>
@@ -17068,7 +17120,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="224" spans="1:21">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>233</v>
       </c>
@@ -17128,7 +17180,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="225" spans="1:21">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>234</v>
       </c>
@@ -17188,7 +17240,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="226" spans="1:21">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>235</v>
       </c>
@@ -17248,7 +17300,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="227" spans="1:21">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>236</v>
       </c>
@@ -17308,7 +17360,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="228" spans="1:21">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>237</v>
       </c>
@@ -17368,7 +17420,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="229" spans="1:21">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>238</v>
       </c>
@@ -17428,7 +17480,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="230" spans="1:21">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>239</v>
       </c>
@@ -17488,7 +17540,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="231" spans="1:21">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>240</v>
       </c>
@@ -17548,7 +17600,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="232" spans="1:21" s="3" customFormat="1">
+    <row r="232" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>242</v>
       </c>
@@ -17608,7 +17660,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="233" spans="1:21">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>243</v>
       </c>
@@ -17668,7 +17720,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="234" spans="1:21">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>244</v>
       </c>
@@ -17728,7 +17780,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="235" spans="1:21">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>245</v>
       </c>
@@ -17788,7 +17840,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="236" spans="1:21">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>246</v>
       </c>
@@ -17848,7 +17900,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="237" spans="1:21" s="3" customFormat="1">
+    <row r="237" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>248</v>
       </c>
@@ -17908,7 +17960,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="238" spans="1:21">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>249</v>
       </c>
@@ -17968,7 +18020,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="239" spans="1:21">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>250</v>
       </c>
@@ -18028,7 +18080,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="240" spans="1:21">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>251</v>
       </c>
@@ -18088,7 +18140,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="241" spans="1:21">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>252</v>
       </c>
@@ -18148,7 +18200,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="242" spans="1:21">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>253</v>
       </c>
@@ -18208,7 +18260,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="243" spans="1:21" s="3" customFormat="1">
+    <row r="243" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>254</v>
       </c>
@@ -18268,7 +18320,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="244" spans="1:21">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>255</v>
       </c>
@@ -18328,7 +18380,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="245" spans="1:21">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>256</v>
       </c>
@@ -18388,7 +18440,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="246" spans="1:21">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>257</v>
       </c>
@@ -18448,7 +18500,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="247" spans="1:21">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>258</v>
       </c>
@@ -18508,7 +18560,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="248" spans="1:21" s="3" customFormat="1">
+    <row r="248" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>259</v>
       </c>
@@ -18565,6 +18617,366 @@
         <v>246</v>
       </c>
       <c r="U248" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A249">
+        <v>260</v>
+      </c>
+      <c r="B249" t="s">
+        <v>714</v>
+      </c>
+      <c r="C249" t="b">
+        <v>0</v>
+      </c>
+      <c r="D249" t="s">
+        <v>715</v>
+      </c>
+      <c r="F249" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" t="s">
+        <v>16</v>
+      </c>
+      <c r="H249" t="s">
+        <v>31</v>
+      </c>
+      <c r="I249">
+        <v>30000</v>
+      </c>
+      <c r="J249" t="s">
+        <v>46</v>
+      </c>
+      <c r="K249">
+        <v>5</v>
+      </c>
+      <c r="M249" t="b">
+        <v>0</v>
+      </c>
+      <c r="N249" t="s">
+        <v>43</v>
+      </c>
+      <c r="O249">
+        <v>0</v>
+      </c>
+      <c r="P249" t="s">
+        <v>714</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>0</v>
+      </c>
+      <c r="S249" t="s">
+        <v>148</v>
+      </c>
+      <c r="T249">
+        <f t="shared" si="5"/>
+        <v>247</v>
+      </c>
+      <c r="U249" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A250">
+        <v>261</v>
+      </c>
+      <c r="B250" t="s">
+        <v>717</v>
+      </c>
+      <c r="C250" t="b">
+        <v>0</v>
+      </c>
+      <c r="D250" t="s">
+        <v>716</v>
+      </c>
+      <c r="F250" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G250" t="s">
+        <v>16</v>
+      </c>
+      <c r="H250" t="s">
+        <v>31</v>
+      </c>
+      <c r="I250">
+        <v>50000</v>
+      </c>
+      <c r="J250" t="s">
+        <v>46</v>
+      </c>
+      <c r="K250">
+        <v>5</v>
+      </c>
+      <c r="M250" t="b">
+        <v>0</v>
+      </c>
+      <c r="N250" t="s">
+        <v>43</v>
+      </c>
+      <c r="O250">
+        <v>0</v>
+      </c>
+      <c r="P250" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q250">
+        <v>0</v>
+      </c>
+      <c r="R250">
+        <v>0</v>
+      </c>
+      <c r="S250" t="s">
+        <v>148</v>
+      </c>
+      <c r="T250">
+        <f t="shared" si="5"/>
+        <v>248</v>
+      </c>
+      <c r="U250" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A251">
+        <v>262</v>
+      </c>
+      <c r="B251" t="s">
+        <v>718</v>
+      </c>
+      <c r="C251" t="b">
+        <v>0</v>
+      </c>
+      <c r="D251" t="s">
+        <v>719</v>
+      </c>
+      <c r="F251" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="H251" t="s">
+        <v>124</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251" t="s">
+        <v>158</v>
+      </c>
+      <c r="K251">
+        <v>5</v>
+      </c>
+      <c r="M251" t="b">
+        <v>0</v>
+      </c>
+      <c r="N251" t="s">
+        <v>43</v>
+      </c>
+      <c r="O251">
+        <v>0</v>
+      </c>
+      <c r="P251" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q251">
+        <v>1</v>
+      </c>
+      <c r="R251">
+        <v>18000</v>
+      </c>
+      <c r="S251" t="s">
+        <v>148</v>
+      </c>
+      <c r="T251">
+        <f t="shared" si="5"/>
+        <v>249</v>
+      </c>
+      <c r="U251" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A252">
+        <v>263</v>
+      </c>
+      <c r="B252" t="s">
+        <v>720</v>
+      </c>
+      <c r="C252" t="b">
+        <v>0</v>
+      </c>
+      <c r="D252" t="s">
+        <v>722</v>
+      </c>
+      <c r="F252" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G252" t="s">
+        <v>16</v>
+      </c>
+      <c r="H252" t="s">
+        <v>31</v>
+      </c>
+      <c r="I252">
+        <v>10000</v>
+      </c>
+      <c r="J252" t="s">
+        <v>46</v>
+      </c>
+      <c r="K252">
+        <v>5</v>
+      </c>
+      <c r="M252" t="b">
+        <v>0</v>
+      </c>
+      <c r="N252" t="s">
+        <v>43</v>
+      </c>
+      <c r="O252">
+        <v>0</v>
+      </c>
+      <c r="P252" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q252">
+        <v>0</v>
+      </c>
+      <c r="R252">
+        <v>0</v>
+      </c>
+      <c r="S252" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="T252">
+        <f t="shared" si="5"/>
+        <v>250</v>
+      </c>
+      <c r="U252" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A253">
+        <v>264</v>
+      </c>
+      <c r="B253" t="s">
+        <v>721</v>
+      </c>
+      <c r="C253" t="b">
+        <v>0</v>
+      </c>
+      <c r="D253" t="s">
+        <v>723</v>
+      </c>
+      <c r="F253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G253" t="s">
+        <v>16</v>
+      </c>
+      <c r="H253" t="s">
+        <v>31</v>
+      </c>
+      <c r="I253">
+        <v>10000</v>
+      </c>
+      <c r="J253" t="s">
+        <v>46</v>
+      </c>
+      <c r="K253">
+        <v>5</v>
+      </c>
+      <c r="M253" t="b">
+        <v>0</v>
+      </c>
+      <c r="N253" t="s">
+        <v>43</v>
+      </c>
+      <c r="O253">
+        <v>0</v>
+      </c>
+      <c r="P253" t="s">
+        <v>721</v>
+      </c>
+      <c r="Q253">
+        <v>0</v>
+      </c>
+      <c r="R253">
+        <v>0</v>
+      </c>
+      <c r="S253" s="14" t="s">
+        <v>627</v>
+      </c>
+      <c r="T253">
+        <f t="shared" si="5"/>
+        <v>251</v>
+      </c>
+      <c r="U253" s="15" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A254">
+        <v>265</v>
+      </c>
+      <c r="B254" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C254" t="b">
+        <v>0</v>
+      </c>
+      <c r="D254" t="s">
+        <v>725</v>
+      </c>
+      <c r="F254" s="1" t="s">
+        <v>726</v>
+      </c>
+      <c r="G254" t="s">
+        <v>585</v>
+      </c>
+      <c r="H254" t="s">
+        <v>75</v>
+      </c>
+      <c r="I254">
+        <v>30000</v>
+      </c>
+      <c r="J254" t="s">
+        <v>75</v>
+      </c>
+      <c r="K254">
+        <v>4</v>
+      </c>
+      <c r="M254" t="b">
+        <v>1</v>
+      </c>
+      <c r="N254" t="s">
+        <v>43</v>
+      </c>
+      <c r="O254">
+        <v>0</v>
+      </c>
+      <c r="P254" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="Q254">
+        <v>0</v>
+      </c>
+      <c r="R254">
+        <v>0</v>
+      </c>
+      <c r="S254" t="s">
+        <v>148</v>
+      </c>
+      <c r="T254">
+        <f t="shared" si="5"/>
+        <v>252</v>
+      </c>
+      <c r="U254" s="15" t="s">
         <v>681</v>
       </c>
     </row>
@@ -18585,7 +18997,7 @@
       <selection sqref="A1:A501"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
